--- a/6. Schedule/Schedule.xlsx
+++ b/6. Schedule/Schedule.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t>○</t>
     <phoneticPr fontId="5"/>
@@ -286,6 +286,114 @@
   </si>
   <si>
     <t>Phần tử XML</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Tổng quan về Html</t>
+  </si>
+  <si>
+    <t>Thẻ Html</t>
+  </si>
+  <si>
+    <t>HTML 5</t>
+  </si>
+  <si>
+    <t>Sơ lược về html</t>
+  </si>
+  <si>
+    <t>Phần tử html</t>
+  </si>
+  <si>
+    <t>Sơ lược về html5</t>
+  </si>
+  <si>
+    <t>Một số thẻ mới</t>
+  </si>
+  <si>
+    <t>Các thẻ đã loại bỏ</t>
+  </si>
+  <si>
+    <t>html là gì</t>
+  </si>
+  <si>
+    <t>trang web (web page)</t>
+  </si>
+  <si>
+    <t>Trình duyệt web (web browser)</t>
+  </si>
+  <si>
+    <t>phần tử inline</t>
+  </si>
+  <si>
+    <t>phần tử block</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Tổng quan về CSS</t>
+  </si>
+  <si>
+    <t>Sơ lược về css</t>
+  </si>
+  <si>
+    <t>Thuộc tính</t>
+  </si>
+  <si>
+    <t>Inline</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>JavaScrips</t>
+  </si>
+  <si>
+    <t>Tổng quan về JavaScrips</t>
+  </si>
+  <si>
+    <t>Các phương thức của javascrips</t>
+  </si>
+  <si>
+    <t>Sơ lược về Javascrips</t>
+  </si>
+  <si>
+    <t>Cách hiện dữ liệu</t>
+  </si>
+  <si>
+    <t>Tìm phần tử của html</t>
+  </si>
+  <si>
+    <t>Thay đổi nội dung, thuộc tính, kiểu dáng của phần tử html</t>
+  </si>
+  <si>
+    <t>Thêm, xóa phần tử</t>
+  </si>
+  <si>
+    <t>Xử lý sự kiện</t>
+  </si>
+  <si>
+    <t>Thay đổi nội dung của HTML</t>
+  </si>
+  <si>
+    <t>Thay đổi giá trị của thuộc tính của html</t>
+  </si>
+  <si>
+    <t>Thay đổi style của phần tử html</t>
+  </si>
+  <si>
+    <t>Kiểm tra tính hợp lệ của dữ liệu nhập vào</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1876,6 +1984,29 @@
     <xf numFmtId="168" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1884,21 +2015,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1912,30 +2039,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1944,50 +2047,64 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2035,60 +2152,51 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2098,6 +2206,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2109,7 +2223,427 @@
     <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="76">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2724,16 +3258,16 @@
   <dimension ref="A1:EL120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="10" topLeftCell="Y11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="10" topLeftCell="Y39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21:B22"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="113" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="113" customWidth="1"/>
     <col min="3" max="3" width="20.75" style="115" customWidth="1"/>
     <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="131" customWidth="1"/>
@@ -2855,20 +3389,20 @@
       <c r="K2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="173" t="s">
+      <c r="L2" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="174"/>
-      <c r="N2" s="173" t="s">
+      <c r="M2" s="178"/>
+      <c r="N2" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="174"/>
+      <c r="O2" s="178"/>
       <c r="P2" s="118"/>
-      <c r="Q2" s="170">
+      <c r="Q2" s="199">
         <f ca="1">TODAY()</f>
-        <v>43297</v>
-      </c>
-      <c r="R2" s="171"/>
+        <v>43304</v>
+      </c>
+      <c r="R2" s="200"/>
       <c r="S2" s="35"/>
       <c r="T2" s="69"/>
       <c r="U2" s="30"/>
@@ -2928,21 +3462,21 @@
       <c r="BW2" s="38"/>
       <c r="BX2" s="38"/>
       <c r="BY2" s="38"/>
-      <c r="BZ2" s="164">
+      <c r="BZ2" s="193">
         <v>0.05</v>
       </c>
-      <c r="CA2" s="165"/>
-      <c r="CB2" s="165"/>
-      <c r="CC2" s="164">
+      <c r="CA2" s="194"/>
+      <c r="CB2" s="194"/>
+      <c r="CC2" s="193">
         <v>0.15</v>
       </c>
-      <c r="CD2" s="165"/>
-      <c r="CE2" s="165"/>
-      <c r="CF2" s="164">
+      <c r="CD2" s="194"/>
+      <c r="CE2" s="194"/>
+      <c r="CF2" s="193">
         <v>0.8</v>
       </c>
-      <c r="CG2" s="165"/>
-      <c r="CH2" s="165"/>
+      <c r="CG2" s="194"/>
+      <c r="CH2" s="194"/>
       <c r="CI2" s="40"/>
       <c r="CJ2" s="40"/>
       <c r="CK2" s="40"/>
@@ -3000,7 +3534,7 @@
       <c r="EK2" s="40"/>
       <c r="EL2" s="15" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," yyyy/mm/dd")</f>
-        <v>Date： 2018/07/16</v>
+        <v>Date： 2018/07/23</v>
       </c>
     </row>
     <row r="3" spans="1:142" ht="18.75" customHeight="1">
@@ -3027,19 +3561,19 @@
         <f>COUNTIF(R11:R12,"=◇")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="175">
+      <c r="L3" s="179">
         <f>COUNTIF(R11:R12,"=▲")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="176"/>
-      <c r="N3" s="175">
+      <c r="M3" s="180"/>
+      <c r="N3" s="179">
         <f>COUNTIF(R11:R12,"=★")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="176"/>
+      <c r="O3" s="180"/>
       <c r="P3" s="136"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
+      <c r="Q3" s="201"/>
+      <c r="R3" s="201"/>
       <c r="S3" s="35"/>
       <c r="T3" s="70"/>
       <c r="U3" s="107"/>
@@ -3099,21 +3633,21 @@
       <c r="BW3" s="38"/>
       <c r="BX3" s="38"/>
       <c r="BY3" s="38"/>
-      <c r="BZ3" s="167" t="s">
+      <c r="BZ3" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="CA3" s="168"/>
-      <c r="CB3" s="169"/>
-      <c r="CC3" s="166" t="s">
+      <c r="CA3" s="197"/>
+      <c r="CB3" s="198"/>
+      <c r="CC3" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="CD3" s="166"/>
-      <c r="CE3" s="166"/>
-      <c r="CF3" s="167" t="s">
+      <c r="CD3" s="195"/>
+      <c r="CE3" s="195"/>
+      <c r="CF3" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="CG3" s="168"/>
-      <c r="CH3" s="169"/>
+      <c r="CG3" s="197"/>
+      <c r="CH3" s="198"/>
       <c r="EL3" s="31">
         <f>B2</f>
         <v>0</v>
@@ -3297,16 +3831,16 @@
       <c r="E7" s="133"/>
       <c r="F7" s="126"/>
       <c r="G7" s="108"/>
-      <c r="H7" s="184" t="s">
+      <c r="H7" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="186"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="190"/>
       <c r="P7" s="126"/>
       <c r="Q7" s="138"/>
       <c r="R7" s="138"/>
@@ -3334,16 +3868,16 @@
         <f>IF(MAX(K11:K12)=DATE(1900,1,0),"",MAX(K11:K12))</f>
         <v/>
       </c>
-      <c r="L8" s="162">
+      <c r="L8" s="191">
         <f>SUM(M11:M110)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="163"/>
-      <c r="N8" s="162">
+      <c r="M8" s="192"/>
+      <c r="N8" s="191">
         <f>SUM(O11:O110)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="163"/>
+      <c r="O8" s="192"/>
       <c r="P8" s="124"/>
       <c r="Q8" s="139"/>
       <c r="R8" s="140" t="str">
@@ -3689,52 +4223,52 @@
       <c r="EI8" s="88"/>
       <c r="EJ8" s="88"/>
       <c r="EK8" s="88"/>
-      <c r="EL8" s="161" t="s">
+      <c r="EL8" s="202" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="192" t="s">
+      <c r="D9" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="194" t="s">
+      <c r="E9" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="200" t="s">
+      <c r="G9" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="189" t="s">
+      <c r="H9" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="190"/>
-      <c r="J9" s="198" t="s">
+      <c r="I9" s="165"/>
+      <c r="J9" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="199"/>
-      <c r="L9" s="177" t="s">
+      <c r="K9" s="175"/>
+      <c r="L9" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="178"/>
-      <c r="N9" s="183" t="s">
+      <c r="M9" s="182"/>
+      <c r="N9" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="178"/>
-      <c r="P9" s="143" t="s">
+      <c r="O9" s="182"/>
+      <c r="P9" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="179" t="s">
+      <c r="Q9" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="180"/>
+      <c r="R9" s="184"/>
       <c r="S9" s="29">
         <v>43282</v>
       </c>
@@ -4226,15 +4760,15 @@
         <f t="shared" si="2"/>
         <v>43404</v>
       </c>
-      <c r="EL9" s="161"/>
+      <c r="EL9" s="202"/>
     </row>
     <row r="10" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B10" s="188"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="200"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="176"/>
       <c r="H10" s="112" t="s">
         <v>20</v>
       </c>
@@ -4259,9 +4793,9 @@
       <c r="O10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="182"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="186"/>
       <c r="S10" s="22">
         <f>S9</f>
         <v>43282</v>
@@ -4592,36 +5126,36 @@
       <c r="EI10" s="89"/>
       <c r="EJ10" s="89"/>
       <c r="EK10" s="89"/>
-      <c r="EL10" s="161"/>
+      <c r="EL10" s="202"/>
     </row>
     <row r="11" spans="1:142" ht="9" customHeight="1">
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C11" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="196"/>
-      <c r="E11" s="145" t="s">
+      <c r="D11" s="172"/>
+      <c r="E11" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="141" t="s">
+      <c r="F11" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="G11" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="159"/>
-      <c r="R11" s="157"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="160"/>
       <c r="S11" s="84"/>
       <c r="T11" s="87"/>
       <c r="U11" s="86"/>
@@ -4748,23 +5282,23 @@
       <c r="EL11" s="95"/>
     </row>
     <row r="12" spans="1:142" ht="9" customHeight="1">
-      <c r="B12" s="202"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="158"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="161"/>
       <c r="S12" s="84"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
@@ -4891,27 +5425,27 @@
       <c r="EL12" s="96"/>
     </row>
     <row r="13" spans="1:142" ht="9" customHeight="1">
-      <c r="B13" s="201"/>
-      <c r="C13" s="191" t="s">
+      <c r="B13" s="141"/>
+      <c r="C13" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="145" t="s">
+      <c r="D13" s="146"/>
+      <c r="E13" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="141"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="159"/>
-      <c r="R13" s="157"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="160"/>
       <c r="S13" s="84"/>
       <c r="T13" s="87"/>
       <c r="U13" s="86"/>
@@ -5038,23 +5572,23 @@
       <c r="EL13" s="95"/>
     </row>
     <row r="14" spans="1:142" ht="9" customHeight="1">
-      <c r="B14" s="202"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="158"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="161"/>
       <c r="S14" s="84"/>
       <c r="T14" s="85"/>
       <c r="U14" s="85"/>
@@ -5181,25 +5715,25 @@
       <c r="EL14" s="96"/>
     </row>
     <row r="15" spans="1:142" ht="9" customHeight="1">
-      <c r="B15" s="201"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="145" t="s">
+      <c r="B15" s="141"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="157"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="158"/>
+      <c r="R15" s="160"/>
       <c r="S15" s="84"/>
       <c r="T15" s="87"/>
       <c r="U15" s="86"/>
@@ -5326,23 +5860,23 @@
       <c r="EL15" s="95"/>
     </row>
     <row r="16" spans="1:142" ht="9" customHeight="1">
-      <c r="B16" s="202"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="158"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="161"/>
       <c r="S16" s="84"/>
       <c r="T16" s="85"/>
       <c r="U16" s="85"/>
@@ -5469,33 +6003,33 @@
       <c r="EL16" s="96"/>
     </row>
     <row r="17" spans="2:142" ht="9" customHeight="1">
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="C17" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="155"/>
-      <c r="E17" s="145" t="s">
+      <c r="D17" s="146"/>
+      <c r="E17" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="141" t="s">
+      <c r="F17" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="147" t="s">
+      <c r="G17" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="149"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="157"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="158"/>
+      <c r="R17" s="160"/>
       <c r="S17" s="84"/>
       <c r="T17" s="87"/>
       <c r="U17" s="86"/>
@@ -5622,23 +6156,23 @@
       <c r="EL17" s="95"/>
     </row>
     <row r="18" spans="2:142" ht="9" customHeight="1">
-      <c r="B18" s="202"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="158"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="161"/>
       <c r="S18" s="84"/>
       <c r="T18" s="85"/>
       <c r="U18" s="85"/>
@@ -5765,25 +6299,25 @@
       <c r="EL18" s="96"/>
     </row>
     <row r="19" spans="2:142" ht="9" customHeight="1">
-      <c r="B19" s="201"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="145" t="s">
+      <c r="B19" s="141"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="159"/>
-      <c r="R19" s="157"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="160"/>
       <c r="S19" s="84"/>
       <c r="T19" s="87"/>
       <c r="U19" s="86"/>
@@ -5910,23 +6444,23 @@
       <c r="EL19" s="95"/>
     </row>
     <row r="20" spans="2:142" ht="9" customHeight="1">
-      <c r="B20" s="202"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="158"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="159"/>
+      <c r="R20" s="161"/>
       <c r="S20" s="84"/>
       <c r="T20" s="85"/>
       <c r="U20" s="85"/>
@@ -6053,23 +6587,31 @@
       <c r="EL20" s="96"/>
     </row>
     <row r="21" spans="2:142" ht="9" customHeight="1">
-      <c r="B21" s="201"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="157"/>
+      <c r="B21" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="146"/>
+      <c r="E21" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="148" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="158"/>
+      <c r="R21" s="160"/>
       <c r="S21" s="84"/>
       <c r="T21" s="87"/>
       <c r="U21" s="86"/>
@@ -6196,23 +6738,23 @@
       <c r="EL21" s="95"/>
     </row>
     <row r="22" spans="2:142" ht="9" customHeight="1">
-      <c r="B22" s="202"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="158"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="161"/>
       <c r="S22" s="84"/>
       <c r="T22" s="85"/>
       <c r="U22" s="85"/>
@@ -6339,23 +6881,25 @@
       <c r="EL22" s="96"/>
     </row>
     <row r="23" spans="2:142" ht="9" customHeight="1">
-      <c r="B23" s="201"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="159"/>
-      <c r="R23" s="157"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="160"/>
       <c r="S23" s="84"/>
       <c r="T23" s="87"/>
       <c r="U23" s="86"/>
@@ -6482,23 +7026,23 @@
       <c r="EL23" s="95"/>
     </row>
     <row r="24" spans="2:142" ht="9" customHeight="1">
-      <c r="B24" s="202"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="158"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="159"/>
+      <c r="R24" s="161"/>
       <c r="S24" s="84"/>
       <c r="T24" s="85"/>
       <c r="U24" s="85"/>
@@ -6625,23 +7169,25 @@
       <c r="EL24" s="96"/>
     </row>
     <row r="25" spans="2:142" ht="9" customHeight="1">
-      <c r="B25" s="201"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="159"/>
-      <c r="R25" s="157"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="160"/>
       <c r="S25" s="84"/>
       <c r="T25" s="87"/>
       <c r="U25" s="86"/>
@@ -6768,23 +7314,23 @@
       <c r="EL25" s="95"/>
     </row>
     <row r="26" spans="2:142" ht="9" customHeight="1">
-      <c r="B26" s="202"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="158"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="149"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="161"/>
       <c r="S26" s="84"/>
       <c r="T26" s="85"/>
       <c r="U26" s="85"/>
@@ -6911,23 +7457,27 @@
       <c r="EL26" s="96"/>
     </row>
     <row r="27" spans="2:142" ht="9" customHeight="1">
-      <c r="B27" s="201"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="159"/>
-      <c r="R27" s="157"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="146"/>
+      <c r="E27" s="144" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="148"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="160"/>
       <c r="S27" s="84"/>
       <c r="T27" s="87"/>
       <c r="U27" s="86"/>
@@ -7054,23 +7604,23 @@
       <c r="EL27" s="95"/>
     </row>
     <row r="28" spans="2:142" ht="9" customHeight="1">
-      <c r="B28" s="202"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="158"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="161"/>
       <c r="S28" s="84"/>
       <c r="T28" s="85"/>
       <c r="U28" s="85"/>
@@ -7197,23 +7747,27 @@
       <c r="EL28" s="96"/>
     </row>
     <row r="29" spans="2:142" ht="9" customHeight="1">
-      <c r="B29" s="201"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="159"/>
-      <c r="R29" s="157"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="144" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="148" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="160"/>
       <c r="S29" s="84"/>
       <c r="T29" s="87"/>
       <c r="U29" s="86"/>
@@ -7340,23 +7894,23 @@
       <c r="EL29" s="95"/>
     </row>
     <row r="30" spans="2:142" ht="9" customHeight="1">
-      <c r="B30" s="202"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="158"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="159"/>
+      <c r="R30" s="161"/>
       <c r="S30" s="84"/>
       <c r="T30" s="85"/>
       <c r="U30" s="85"/>
@@ -7483,23 +8037,25 @@
       <c r="EL30" s="96"/>
     </row>
     <row r="31" spans="2:142" ht="9" customHeight="1">
-      <c r="B31" s="201"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="159"/>
-      <c r="R31" s="157"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="148" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="160"/>
       <c r="S31" s="84"/>
       <c r="T31" s="87"/>
       <c r="U31" s="86"/>
@@ -7626,23 +8182,23 @@
       <c r="EL31" s="95"/>
     </row>
     <row r="32" spans="2:142" ht="9" customHeight="1">
-      <c r="B32" s="202"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="154"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="154"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="158"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="159"/>
+      <c r="R32" s="161"/>
       <c r="S32" s="84"/>
       <c r="T32" s="85"/>
       <c r="U32" s="85"/>
@@ -7769,23 +8325,27 @@
       <c r="EL32" s="96"/>
     </row>
     <row r="33" spans="2:142" ht="9" customHeight="1">
-      <c r="B33" s="201"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="159"/>
-      <c r="R33" s="157"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="143" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="146"/>
+      <c r="E33" s="144" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="148"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="160"/>
       <c r="S33" s="84"/>
       <c r="T33" s="87"/>
       <c r="U33" s="86"/>
@@ -7912,23 +8472,23 @@
       <c r="EL33" s="95"/>
     </row>
     <row r="34" spans="2:142" ht="9" customHeight="1">
-      <c r="B34" s="202"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="152"/>
-      <c r="P34" s="142"/>
-      <c r="Q34" s="160"/>
-      <c r="R34" s="158"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="153"/>
+      <c r="O34" s="151"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="161"/>
       <c r="S34" s="84"/>
       <c r="T34" s="85"/>
       <c r="U34" s="85"/>
@@ -8055,23 +8615,25 @@
       <c r="EL34" s="96"/>
     </row>
     <row r="35" spans="2:142" ht="9" customHeight="1">
-      <c r="B35" s="201"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="159"/>
-      <c r="R35" s="157"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="144" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="148"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="150"/>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="158"/>
+      <c r="R35" s="160"/>
       <c r="S35" s="84"/>
       <c r="T35" s="87"/>
       <c r="U35" s="86"/>
@@ -8198,23 +8760,23 @@
       <c r="EL35" s="95"/>
     </row>
     <row r="36" spans="2:142" ht="9" customHeight="1">
-      <c r="B36" s="202"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="142"/>
-      <c r="Q36" s="160"/>
-      <c r="R36" s="158"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="159"/>
+      <c r="R36" s="161"/>
       <c r="S36" s="84"/>
       <c r="T36" s="85"/>
       <c r="U36" s="85"/>
@@ -8341,23 +8903,25 @@
       <c r="EL36" s="96"/>
     </row>
     <row r="37" spans="2:142" ht="9" customHeight="1">
-      <c r="B37" s="201"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="159"/>
-      <c r="R37" s="157"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="144" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="148"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="152"/>
+      <c r="O37" s="150"/>
+      <c r="P37" s="148"/>
+      <c r="Q37" s="158"/>
+      <c r="R37" s="160"/>
       <c r="S37" s="84"/>
       <c r="T37" s="87"/>
       <c r="U37" s="86"/>
@@ -8484,23 +9048,23 @@
       <c r="EL37" s="95"/>
     </row>
     <row r="38" spans="2:142" ht="9" customHeight="1">
-      <c r="B38" s="202"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="152"/>
-      <c r="N38" s="154"/>
-      <c r="O38" s="152"/>
-      <c r="P38" s="142"/>
-      <c r="Q38" s="160"/>
-      <c r="R38" s="158"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="153"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="159"/>
+      <c r="R38" s="161"/>
       <c r="S38" s="84"/>
       <c r="T38" s="85"/>
       <c r="U38" s="85"/>
@@ -8627,23 +9191,29 @@
       <c r="EL38" s="96"/>
     </row>
     <row r="39" spans="2:142" ht="9" customHeight="1">
-      <c r="B39" s="201"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="141"/>
-      <c r="Q39" s="159"/>
-      <c r="R39" s="157"/>
+      <c r="B39" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="143" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="146"/>
+      <c r="E39" s="144" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="148"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="152"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="158"/>
+      <c r="R39" s="160"/>
       <c r="S39" s="84"/>
       <c r="T39" s="87"/>
       <c r="U39" s="86"/>
@@ -8770,23 +9340,23 @@
       <c r="EL39" s="95"/>
     </row>
     <row r="40" spans="2:142" ht="9" customHeight="1">
-      <c r="B40" s="202"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="152"/>
-      <c r="N40" s="154"/>
-      <c r="O40" s="152"/>
-      <c r="P40" s="142"/>
-      <c r="Q40" s="160"/>
-      <c r="R40" s="158"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="151"/>
+      <c r="N40" s="153"/>
+      <c r="O40" s="151"/>
+      <c r="P40" s="149"/>
+      <c r="Q40" s="159"/>
+      <c r="R40" s="161"/>
       <c r="S40" s="84"/>
       <c r="T40" s="85"/>
       <c r="U40" s="85"/>
@@ -8913,23 +9483,25 @@
       <c r="EL40" s="96"/>
     </row>
     <row r="41" spans="2:142" ht="9" customHeight="1">
-      <c r="B41" s="201"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="151"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="151"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="159"/>
-      <c r="R41" s="157"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="144" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="148"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="156"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="150"/>
+      <c r="N41" s="152"/>
+      <c r="O41" s="150"/>
+      <c r="P41" s="148"/>
+      <c r="Q41" s="158"/>
+      <c r="R41" s="160"/>
       <c r="S41" s="84"/>
       <c r="T41" s="87"/>
       <c r="U41" s="86"/>
@@ -9056,23 +9628,23 @@
       <c r="EL41" s="95"/>
     </row>
     <row r="42" spans="2:142" ht="9" customHeight="1">
-      <c r="B42" s="202"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="152"/>
-      <c r="N42" s="154"/>
-      <c r="O42" s="152"/>
-      <c r="P42" s="142"/>
-      <c r="Q42" s="160"/>
-      <c r="R42" s="158"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="157"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="153"/>
+      <c r="O42" s="151"/>
+      <c r="P42" s="149"/>
+      <c r="Q42" s="159"/>
+      <c r="R42" s="161"/>
       <c r="S42" s="84"/>
       <c r="T42" s="85"/>
       <c r="U42" s="85"/>
@@ -9199,23 +9771,27 @@
       <c r="EL42" s="96"/>
     </row>
     <row r="43" spans="2:142" ht="9" customHeight="1">
-      <c r="B43" s="201"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="151"/>
-      <c r="P43" s="141"/>
-      <c r="Q43" s="159"/>
-      <c r="R43" s="157"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="150"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="158"/>
+      <c r="R43" s="160"/>
       <c r="S43" s="84"/>
       <c r="T43" s="87"/>
       <c r="U43" s="86"/>
@@ -9342,23 +9918,23 @@
       <c r="EL43" s="95"/>
     </row>
     <row r="44" spans="2:142" ht="9" customHeight="1">
-      <c r="B44" s="202"/>
-      <c r="C44" s="191"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="152"/>
-      <c r="N44" s="154"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="142"/>
-      <c r="Q44" s="160"/>
-      <c r="R44" s="158"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="155"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="153"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="149"/>
+      <c r="Q44" s="159"/>
+      <c r="R44" s="161"/>
       <c r="S44" s="84"/>
       <c r="T44" s="85"/>
       <c r="U44" s="85"/>
@@ -9485,23 +10061,25 @@
       <c r="EL44" s="96"/>
     </row>
     <row r="45" spans="2:142" ht="9" customHeight="1">
-      <c r="B45" s="201"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="151"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="151"/>
-      <c r="P45" s="141"/>
-      <c r="Q45" s="159"/>
-      <c r="R45" s="157"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="154"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="156"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="150"/>
+      <c r="N45" s="152"/>
+      <c r="O45" s="150"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="158"/>
+      <c r="R45" s="160"/>
       <c r="S45" s="84"/>
       <c r="T45" s="87"/>
       <c r="U45" s="86"/>
@@ -9628,23 +10206,23 @@
       <c r="EL45" s="95"/>
     </row>
     <row r="46" spans="2:142" ht="9" customHeight="1">
-      <c r="B46" s="202"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="150"/>
-      <c r="K46" s="150"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="154"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="142"/>
-      <c r="Q46" s="160"/>
-      <c r="R46" s="158"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="157"/>
+      <c r="K46" s="157"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="151"/>
+      <c r="N46" s="153"/>
+      <c r="O46" s="151"/>
+      <c r="P46" s="149"/>
+      <c r="Q46" s="159"/>
+      <c r="R46" s="161"/>
       <c r="S46" s="84"/>
       <c r="T46" s="85"/>
       <c r="U46" s="85"/>
@@ -9771,23 +10349,25 @@
       <c r="EL46" s="96"/>
     </row>
     <row r="47" spans="2:142" ht="9" customHeight="1">
-      <c r="B47" s="201"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="149"/>
-      <c r="L47" s="153"/>
-      <c r="M47" s="151"/>
-      <c r="N47" s="153"/>
-      <c r="O47" s="151"/>
-      <c r="P47" s="141"/>
-      <c r="Q47" s="159"/>
-      <c r="R47" s="157"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="148" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="154"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="156"/>
+      <c r="K47" s="156"/>
+      <c r="L47" s="152"/>
+      <c r="M47" s="150"/>
+      <c r="N47" s="152"/>
+      <c r="O47" s="150"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="158"/>
+      <c r="R47" s="160"/>
       <c r="S47" s="84"/>
       <c r="T47" s="87"/>
       <c r="U47" s="86"/>
@@ -9914,23 +10494,23 @@
       <c r="EL47" s="95"/>
     </row>
     <row r="48" spans="2:142" ht="9" customHeight="1">
-      <c r="B48" s="202"/>
-      <c r="C48" s="191"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="150"/>
-      <c r="L48" s="154"/>
-      <c r="M48" s="152"/>
-      <c r="N48" s="154"/>
-      <c r="O48" s="152"/>
-      <c r="P48" s="142"/>
-      <c r="Q48" s="160"/>
-      <c r="R48" s="158"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="157"/>
+      <c r="K48" s="157"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="153"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="159"/>
+      <c r="R48" s="161"/>
       <c r="S48" s="84"/>
       <c r="T48" s="85"/>
       <c r="U48" s="85"/>
@@ -10057,23 +10637,27 @@
       <c r="EL48" s="96"/>
     </row>
     <row r="49" spans="2:142" ht="9" customHeight="1">
-      <c r="B49" s="201"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="153"/>
-      <c r="O49" s="151"/>
-      <c r="P49" s="141"/>
-      <c r="Q49" s="159"/>
-      <c r="R49" s="157"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="148" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="156"/>
+      <c r="K49" s="156"/>
+      <c r="L49" s="152"/>
+      <c r="M49" s="150"/>
+      <c r="N49" s="152"/>
+      <c r="O49" s="150"/>
+      <c r="P49" s="148"/>
+      <c r="Q49" s="158"/>
+      <c r="R49" s="160"/>
       <c r="S49" s="84"/>
       <c r="T49" s="87"/>
       <c r="U49" s="86"/>
@@ -10200,23 +10784,23 @@
       <c r="EL49" s="95"/>
     </row>
     <row r="50" spans="2:142" ht="9" customHeight="1">
-      <c r="B50" s="202"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="154"/>
-      <c r="M50" s="152"/>
-      <c r="N50" s="154"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="142"/>
-      <c r="Q50" s="160"/>
-      <c r="R50" s="158"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="153"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="153"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="149"/>
+      <c r="Q50" s="159"/>
+      <c r="R50" s="161"/>
       <c r="S50" s="84"/>
       <c r="T50" s="85"/>
       <c r="U50" s="85"/>
@@ -10343,23 +10927,25 @@
       <c r="EL50" s="96"/>
     </row>
     <row r="51" spans="2:142" ht="9" customHeight="1">
-      <c r="B51" s="201"/>
-      <c r="C51" s="191"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="149"/>
-      <c r="K51" s="149"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="151"/>
-      <c r="N51" s="153"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="141"/>
-      <c r="Q51" s="159"/>
-      <c r="R51" s="157"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="148" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="152"/>
+      <c r="M51" s="150"/>
+      <c r="N51" s="152"/>
+      <c r="O51" s="150"/>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="158"/>
+      <c r="R51" s="160"/>
       <c r="S51" s="84"/>
       <c r="T51" s="87"/>
       <c r="U51" s="86"/>
@@ -10486,23 +11072,23 @@
       <c r="EL51" s="95"/>
     </row>
     <row r="52" spans="2:142" ht="9" customHeight="1">
-      <c r="B52" s="202"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="146"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="148"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="148"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="152"/>
-      <c r="N52" s="154"/>
-      <c r="O52" s="152"/>
-      <c r="P52" s="142"/>
-      <c r="Q52" s="160"/>
-      <c r="R52" s="158"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="149"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="157"/>
+      <c r="K52" s="157"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="151"/>
+      <c r="N52" s="153"/>
+      <c r="O52" s="151"/>
+      <c r="P52" s="149"/>
+      <c r="Q52" s="159"/>
+      <c r="R52" s="161"/>
       <c r="S52" s="84"/>
       <c r="T52" s="85"/>
       <c r="U52" s="85"/>
@@ -10629,23 +11215,29 @@
       <c r="EL52" s="96"/>
     </row>
     <row r="53" spans="2:142" ht="9" customHeight="1">
-      <c r="B53" s="201"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="147"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="149"/>
-      <c r="L53" s="153"/>
-      <c r="M53" s="151"/>
-      <c r="N53" s="153"/>
-      <c r="O53" s="151"/>
-      <c r="P53" s="141"/>
-      <c r="Q53" s="159"/>
-      <c r="R53" s="157"/>
+      <c r="B53" s="206" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="146"/>
+      <c r="E53" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="148"/>
+      <c r="G53" s="154"/>
+      <c r="H53" s="154"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="156"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="152"/>
+      <c r="M53" s="150"/>
+      <c r="N53" s="152"/>
+      <c r="O53" s="150"/>
+      <c r="P53" s="148"/>
+      <c r="Q53" s="158"/>
+      <c r="R53" s="160"/>
       <c r="S53" s="84"/>
       <c r="T53" s="87"/>
       <c r="U53" s="86"/>
@@ -10772,23 +11364,23 @@
       <c r="EL53" s="95"/>
     </row>
     <row r="54" spans="2:142" ht="9" customHeight="1">
-      <c r="B54" s="202"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="150"/>
-      <c r="L54" s="154"/>
-      <c r="M54" s="152"/>
-      <c r="N54" s="154"/>
-      <c r="O54" s="152"/>
-      <c r="P54" s="142"/>
-      <c r="Q54" s="160"/>
-      <c r="R54" s="158"/>
+      <c r="B54" s="207"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="149"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="153"/>
+      <c r="M54" s="151"/>
+      <c r="N54" s="153"/>
+      <c r="O54" s="151"/>
+      <c r="P54" s="149"/>
+      <c r="Q54" s="159"/>
+      <c r="R54" s="161"/>
       <c r="S54" s="84"/>
       <c r="T54" s="85"/>
       <c r="U54" s="85"/>
@@ -10915,23 +11507,27 @@
       <c r="EL54" s="96"/>
     </row>
     <row r="55" spans="2:142" ht="9" customHeight="1">
-      <c r="B55" s="201"/>
-      <c r="C55" s="191"/>
-      <c r="D55" s="155"/>
-      <c r="E55" s="145"/>
-      <c r="F55" s="141"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="149"/>
-      <c r="K55" s="149"/>
-      <c r="L55" s="153"/>
-      <c r="M55" s="151"/>
-      <c r="N55" s="153"/>
-      <c r="O55" s="151"/>
-      <c r="P55" s="141"/>
-      <c r="Q55" s="159"/>
-      <c r="R55" s="157"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="148" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="152"/>
+      <c r="M55" s="150"/>
+      <c r="N55" s="152"/>
+      <c r="O55" s="150"/>
+      <c r="P55" s="148"/>
+      <c r="Q55" s="158"/>
+      <c r="R55" s="160"/>
       <c r="S55" s="84"/>
       <c r="T55" s="87"/>
       <c r="U55" s="86"/>
@@ -11058,23 +11654,23 @@
       <c r="EL55" s="95"/>
     </row>
     <row r="56" spans="2:142" ht="9" customHeight="1">
-      <c r="B56" s="202"/>
-      <c r="C56" s="191"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="148"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="148"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
-      <c r="L56" s="154"/>
-      <c r="M56" s="152"/>
-      <c r="N56" s="154"/>
-      <c r="O56" s="152"/>
-      <c r="P56" s="142"/>
-      <c r="Q56" s="160"/>
-      <c r="R56" s="158"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="149"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="157"/>
+      <c r="K56" s="157"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="151"/>
+      <c r="N56" s="153"/>
+      <c r="O56" s="151"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="159"/>
+      <c r="R56" s="161"/>
       <c r="S56" s="84"/>
       <c r="T56" s="85"/>
       <c r="U56" s="85"/>
@@ -11201,23 +11797,25 @@
       <c r="EL56" s="96"/>
     </row>
     <row r="57" spans="2:142" ht="9" customHeight="1">
-      <c r="B57" s="201"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="149"/>
-      <c r="K57" s="149"/>
-      <c r="L57" s="153"/>
-      <c r="M57" s="151"/>
-      <c r="N57" s="153"/>
-      <c r="O57" s="151"/>
-      <c r="P57" s="141"/>
-      <c r="Q57" s="159"/>
-      <c r="R57" s="157"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="148" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="154"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="154"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="156"/>
+      <c r="L57" s="152"/>
+      <c r="M57" s="150"/>
+      <c r="N57" s="152"/>
+      <c r="O57" s="150"/>
+      <c r="P57" s="148"/>
+      <c r="Q57" s="158"/>
+      <c r="R57" s="160"/>
       <c r="S57" s="84"/>
       <c r="T57" s="87"/>
       <c r="U57" s="86"/>
@@ -11344,23 +11942,23 @@
       <c r="EL57" s="95"/>
     </row>
     <row r="58" spans="2:142" ht="9" customHeight="1">
-      <c r="B58" s="202"/>
-      <c r="C58" s="191"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="142"/>
-      <c r="G58" s="148"/>
-      <c r="H58" s="148"/>
-      <c r="I58" s="148"/>
-      <c r="J58" s="150"/>
-      <c r="K58" s="150"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="152"/>
-      <c r="N58" s="154"/>
-      <c r="O58" s="152"/>
-      <c r="P58" s="142"/>
-      <c r="Q58" s="160"/>
-      <c r="R58" s="158"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="157"/>
+      <c r="K58" s="157"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="151"/>
+      <c r="N58" s="153"/>
+      <c r="O58" s="151"/>
+      <c r="P58" s="149"/>
+      <c r="Q58" s="159"/>
+      <c r="R58" s="161"/>
       <c r="S58" s="84"/>
       <c r="T58" s="85"/>
       <c r="U58" s="85"/>
@@ -11487,23 +12085,25 @@
       <c r="EL58" s="96"/>
     </row>
     <row r="59" spans="2:142" ht="9" customHeight="1">
-      <c r="B59" s="201"/>
-      <c r="C59" s="191"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="145"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
-      <c r="J59" s="149"/>
-      <c r="K59" s="149"/>
-      <c r="L59" s="153"/>
-      <c r="M59" s="151"/>
-      <c r="N59" s="153"/>
-      <c r="O59" s="151"/>
-      <c r="P59" s="141"/>
-      <c r="Q59" s="159"/>
-      <c r="R59" s="157"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="148" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="154"/>
+      <c r="H59" s="154"/>
+      <c r="I59" s="154"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="156"/>
+      <c r="L59" s="152"/>
+      <c r="M59" s="150"/>
+      <c r="N59" s="152"/>
+      <c r="O59" s="150"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="158"/>
+      <c r="R59" s="160"/>
       <c r="S59" s="84"/>
       <c r="T59" s="87"/>
       <c r="U59" s="86"/>
@@ -11630,23 +12230,23 @@
       <c r="EL59" s="95"/>
     </row>
     <row r="60" spans="2:142" ht="9" customHeight="1">
-      <c r="B60" s="202"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="150"/>
-      <c r="K60" s="150"/>
-      <c r="L60" s="154"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="154"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="142"/>
-      <c r="Q60" s="160"/>
-      <c r="R60" s="158"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="149"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="151"/>
+      <c r="N60" s="153"/>
+      <c r="O60" s="151"/>
+      <c r="P60" s="149"/>
+      <c r="Q60" s="159"/>
+      <c r="R60" s="161"/>
       <c r="S60" s="84"/>
       <c r="T60" s="85"/>
       <c r="U60" s="85"/>
@@ -11773,23 +12373,25 @@
       <c r="EL60" s="96"/>
     </row>
     <row r="61" spans="2:142" ht="9" customHeight="1">
-      <c r="B61" s="201"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="147"/>
-      <c r="I61" s="147"/>
-      <c r="J61" s="149"/>
-      <c r="K61" s="149"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="151"/>
-      <c r="N61" s="153"/>
-      <c r="O61" s="151"/>
-      <c r="P61" s="141"/>
-      <c r="Q61" s="159"/>
-      <c r="R61" s="157"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="148" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="154"/>
+      <c r="H61" s="154"/>
+      <c r="I61" s="154"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="152"/>
+      <c r="M61" s="150"/>
+      <c r="N61" s="152"/>
+      <c r="O61" s="150"/>
+      <c r="P61" s="148"/>
+      <c r="Q61" s="158"/>
+      <c r="R61" s="160"/>
       <c r="S61" s="84"/>
       <c r="T61" s="87"/>
       <c r="U61" s="86"/>
@@ -11916,23 +12518,23 @@
       <c r="EL61" s="95"/>
     </row>
     <row r="62" spans="2:142" ht="9" customHeight="1">
-      <c r="B62" s="202"/>
-      <c r="C62" s="191"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="148"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="150"/>
-      <c r="K62" s="150"/>
-      <c r="L62" s="154"/>
-      <c r="M62" s="152"/>
-      <c r="N62" s="154"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="142"/>
-      <c r="Q62" s="160"/>
-      <c r="R62" s="158"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="149"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="157"/>
+      <c r="K62" s="157"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="151"/>
+      <c r="N62" s="153"/>
+      <c r="O62" s="151"/>
+      <c r="P62" s="149"/>
+      <c r="Q62" s="159"/>
+      <c r="R62" s="161"/>
       <c r="S62" s="84"/>
       <c r="T62" s="85"/>
       <c r="U62" s="85"/>
@@ -12059,23 +12661,25 @@
       <c r="EL62" s="96"/>
     </row>
     <row r="63" spans="2:142" ht="9" customHeight="1">
-      <c r="B63" s="201"/>
-      <c r="C63" s="191"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="145"/>
-      <c r="F63" s="141"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="149"/>
-      <c r="K63" s="149"/>
-      <c r="L63" s="153"/>
-      <c r="M63" s="151"/>
-      <c r="N63" s="153"/>
-      <c r="O63" s="151"/>
-      <c r="P63" s="141"/>
-      <c r="Q63" s="159"/>
-      <c r="R63" s="157"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="146"/>
+      <c r="E63" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" s="148"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
+      <c r="J63" s="156"/>
+      <c r="K63" s="156"/>
+      <c r="L63" s="152"/>
+      <c r="M63" s="150"/>
+      <c r="N63" s="152"/>
+      <c r="O63" s="150"/>
+      <c r="P63" s="148"/>
+      <c r="Q63" s="158"/>
+      <c r="R63" s="160"/>
       <c r="S63" s="84"/>
       <c r="T63" s="87"/>
       <c r="U63" s="86"/>
@@ -12202,23 +12806,23 @@
       <c r="EL63" s="95"/>
     </row>
     <row r="64" spans="2:142" ht="9" customHeight="1">
-      <c r="B64" s="202"/>
-      <c r="C64" s="191"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="142"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="150"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="152"/>
-      <c r="N64" s="154"/>
-      <c r="O64" s="152"/>
-      <c r="P64" s="142"/>
-      <c r="Q64" s="160"/>
-      <c r="R64" s="158"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="149"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="157"/>
+      <c r="K64" s="157"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="151"/>
+      <c r="N64" s="153"/>
+      <c r="O64" s="151"/>
+      <c r="P64" s="149"/>
+      <c r="Q64" s="159"/>
+      <c r="R64" s="161"/>
       <c r="S64" s="84"/>
       <c r="T64" s="85"/>
       <c r="U64" s="85"/>
@@ -12345,23 +12949,27 @@
       <c r="EL64" s="96"/>
     </row>
     <row r="65" spans="2:142" ht="9" customHeight="1">
-      <c r="B65" s="201"/>
-      <c r="C65" s="191"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="145"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
-      <c r="J65" s="149"/>
-      <c r="K65" s="149"/>
-      <c r="L65" s="153"/>
-      <c r="M65" s="151"/>
-      <c r="N65" s="153"/>
-      <c r="O65" s="151"/>
-      <c r="P65" s="141"/>
-      <c r="Q65" s="159"/>
-      <c r="R65" s="157"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="143" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="146"/>
+      <c r="E65" s="144" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="148"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="154"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="156"/>
+      <c r="L65" s="152"/>
+      <c r="M65" s="150"/>
+      <c r="N65" s="152"/>
+      <c r="O65" s="150"/>
+      <c r="P65" s="148"/>
+      <c r="Q65" s="158"/>
+      <c r="R65" s="160"/>
       <c r="S65" s="84"/>
       <c r="T65" s="87"/>
       <c r="U65" s="86"/>
@@ -12488,23 +13096,23 @@
       <c r="EL65" s="95"/>
     </row>
     <row r="66" spans="2:142" ht="9" customHeight="1">
-      <c r="B66" s="202"/>
-      <c r="C66" s="191"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="148"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="150"/>
-      <c r="K66" s="150"/>
-      <c r="L66" s="154"/>
-      <c r="M66" s="152"/>
-      <c r="N66" s="154"/>
-      <c r="O66" s="152"/>
-      <c r="P66" s="142"/>
-      <c r="Q66" s="160"/>
-      <c r="R66" s="158"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="155"/>
+      <c r="H66" s="155"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="157"/>
+      <c r="K66" s="157"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="151"/>
+      <c r="N66" s="153"/>
+      <c r="O66" s="151"/>
+      <c r="P66" s="149"/>
+      <c r="Q66" s="159"/>
+      <c r="R66" s="161"/>
       <c r="S66" s="84"/>
       <c r="T66" s="85"/>
       <c r="U66" s="85"/>
@@ -12631,23 +13239,25 @@
       <c r="EL66" s="96"/>
     </row>
     <row r="67" spans="2:142" ht="9" customHeight="1">
-      <c r="B67" s="201"/>
-      <c r="C67" s="191"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="145"/>
-      <c r="F67" s="141"/>
-      <c r="G67" s="147"/>
-      <c r="H67" s="147"/>
-      <c r="I67" s="147"/>
-      <c r="J67" s="149"/>
-      <c r="K67" s="149"/>
-      <c r="L67" s="153"/>
-      <c r="M67" s="151"/>
-      <c r="N67" s="153"/>
-      <c r="O67" s="151"/>
-      <c r="P67" s="141"/>
-      <c r="Q67" s="159"/>
-      <c r="R67" s="157"/>
+      <c r="B67" s="141"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" s="148"/>
+      <c r="G67" s="154"/>
+      <c r="H67" s="154"/>
+      <c r="I67" s="154"/>
+      <c r="J67" s="156"/>
+      <c r="K67" s="156"/>
+      <c r="L67" s="152"/>
+      <c r="M67" s="150"/>
+      <c r="N67" s="152"/>
+      <c r="O67" s="150"/>
+      <c r="P67" s="148"/>
+      <c r="Q67" s="158"/>
+      <c r="R67" s="160"/>
       <c r="S67" s="84"/>
       <c r="T67" s="87"/>
       <c r="U67" s="86"/>
@@ -12774,23 +13384,23 @@
       <c r="EL67" s="95"/>
     </row>
     <row r="68" spans="2:142" ht="9" customHeight="1">
-      <c r="B68" s="202"/>
-      <c r="C68" s="191"/>
-      <c r="D68" s="156"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="150"/>
-      <c r="K68" s="150"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="152"/>
-      <c r="N68" s="154"/>
-      <c r="O68" s="152"/>
-      <c r="P68" s="142"/>
-      <c r="Q68" s="160"/>
-      <c r="R68" s="158"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="145"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="155"/>
+      <c r="H68" s="155"/>
+      <c r="I68" s="155"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="153"/>
+      <c r="M68" s="151"/>
+      <c r="N68" s="153"/>
+      <c r="O68" s="151"/>
+      <c r="P68" s="149"/>
+      <c r="Q68" s="159"/>
+      <c r="R68" s="161"/>
       <c r="S68" s="84"/>
       <c r="T68" s="85"/>
       <c r="U68" s="85"/>
@@ -12917,23 +13527,25 @@
       <c r="EL68" s="96"/>
     </row>
     <row r="69" spans="2:142" ht="9" customHeight="1">
-      <c r="B69" s="201"/>
-      <c r="C69" s="191"/>
-      <c r="D69" s="155"/>
-      <c r="E69" s="145"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="147"/>
-      <c r="H69" s="147"/>
-      <c r="I69" s="147"/>
-      <c r="J69" s="149"/>
-      <c r="K69" s="149"/>
-      <c r="L69" s="153"/>
-      <c r="M69" s="151"/>
-      <c r="N69" s="153"/>
-      <c r="O69" s="151"/>
-      <c r="P69" s="141"/>
-      <c r="Q69" s="159"/>
-      <c r="R69" s="157"/>
+      <c r="B69" s="141"/>
+      <c r="C69" s="143"/>
+      <c r="D69" s="146"/>
+      <c r="E69" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="148"/>
+      <c r="G69" s="154"/>
+      <c r="H69" s="154"/>
+      <c r="I69" s="154"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="156"/>
+      <c r="L69" s="152"/>
+      <c r="M69" s="150"/>
+      <c r="N69" s="152"/>
+      <c r="O69" s="150"/>
+      <c r="P69" s="148"/>
+      <c r="Q69" s="158"/>
+      <c r="R69" s="160"/>
       <c r="S69" s="84"/>
       <c r="T69" s="87"/>
       <c r="U69" s="86"/>
@@ -13060,23 +13672,23 @@
       <c r="EL69" s="95"/>
     </row>
     <row r="70" spans="2:142" ht="9" customHeight="1">
-      <c r="B70" s="202"/>
-      <c r="C70" s="191"/>
-      <c r="D70" s="156"/>
-      <c r="E70" s="146"/>
-      <c r="F70" s="142"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="150"/>
-      <c r="K70" s="150"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="152"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="152"/>
-      <c r="P70" s="142"/>
-      <c r="Q70" s="160"/>
-      <c r="R70" s="158"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="147"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="149"/>
+      <c r="G70" s="155"/>
+      <c r="H70" s="155"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="157"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="153"/>
+      <c r="M70" s="151"/>
+      <c r="N70" s="153"/>
+      <c r="O70" s="151"/>
+      <c r="P70" s="149"/>
+      <c r="Q70" s="159"/>
+      <c r="R70" s="161"/>
       <c r="S70" s="84"/>
       <c r="T70" s="85"/>
       <c r="U70" s="85"/>
@@ -13203,23 +13815,25 @@
       <c r="EL70" s="96"/>
     </row>
     <row r="71" spans="2:142" ht="9" customHeight="1">
-      <c r="B71" s="201"/>
-      <c r="C71" s="191"/>
-      <c r="D71" s="155"/>
-      <c r="E71" s="145"/>
-      <c r="F71" s="141"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="147"/>
-      <c r="I71" s="147"/>
-      <c r="J71" s="149"/>
-      <c r="K71" s="149"/>
-      <c r="L71" s="153"/>
-      <c r="M71" s="151"/>
-      <c r="N71" s="153"/>
-      <c r="O71" s="151"/>
-      <c r="P71" s="141"/>
-      <c r="Q71" s="159"/>
-      <c r="R71" s="157"/>
+      <c r="B71" s="141"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="144" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="148"/>
+      <c r="G71" s="154"/>
+      <c r="H71" s="154"/>
+      <c r="I71" s="154"/>
+      <c r="J71" s="156"/>
+      <c r="K71" s="156"/>
+      <c r="L71" s="152"/>
+      <c r="M71" s="150"/>
+      <c r="N71" s="152"/>
+      <c r="O71" s="150"/>
+      <c r="P71" s="148"/>
+      <c r="Q71" s="158"/>
+      <c r="R71" s="160"/>
       <c r="S71" s="84"/>
       <c r="T71" s="87"/>
       <c r="U71" s="86"/>
@@ -13346,23 +13960,23 @@
       <c r="EL71" s="95"/>
     </row>
     <row r="72" spans="2:142" ht="9" customHeight="1">
-      <c r="B72" s="202"/>
-      <c r="C72" s="191"/>
-      <c r="D72" s="156"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="142"/>
-      <c r="G72" s="148"/>
-      <c r="H72" s="148"/>
-      <c r="I72" s="148"/>
-      <c r="J72" s="150"/>
-      <c r="K72" s="150"/>
-      <c r="L72" s="154"/>
-      <c r="M72" s="152"/>
-      <c r="N72" s="154"/>
-      <c r="O72" s="152"/>
-      <c r="P72" s="142"/>
-      <c r="Q72" s="160"/>
-      <c r="R72" s="158"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="145"/>
+      <c r="F72" s="149"/>
+      <c r="G72" s="155"/>
+      <c r="H72" s="155"/>
+      <c r="I72" s="155"/>
+      <c r="J72" s="157"/>
+      <c r="K72" s="157"/>
+      <c r="L72" s="153"/>
+      <c r="M72" s="151"/>
+      <c r="N72" s="153"/>
+      <c r="O72" s="151"/>
+      <c r="P72" s="149"/>
+      <c r="Q72" s="159"/>
+      <c r="R72" s="161"/>
       <c r="S72" s="84"/>
       <c r="T72" s="85"/>
       <c r="U72" s="85"/>
@@ -13489,23 +14103,23 @@
       <c r="EL72" s="96"/>
     </row>
     <row r="73" spans="2:142" ht="9" customHeight="1">
-      <c r="B73" s="201"/>
-      <c r="C73" s="191"/>
-      <c r="D73" s="155"/>
-      <c r="E73" s="145"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="147"/>
-      <c r="H73" s="147"/>
-      <c r="I73" s="147"/>
-      <c r="J73" s="149"/>
-      <c r="K73" s="149"/>
-      <c r="L73" s="153"/>
-      <c r="M73" s="151"/>
-      <c r="N73" s="153"/>
-      <c r="O73" s="151"/>
-      <c r="P73" s="141"/>
-      <c r="Q73" s="159"/>
-      <c r="R73" s="157"/>
+      <c r="B73" s="141"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="146"/>
+      <c r="E73" s="144"/>
+      <c r="F73" s="148"/>
+      <c r="G73" s="154"/>
+      <c r="H73" s="154"/>
+      <c r="I73" s="154"/>
+      <c r="J73" s="156"/>
+      <c r="K73" s="156"/>
+      <c r="L73" s="152"/>
+      <c r="M73" s="150"/>
+      <c r="N73" s="152"/>
+      <c r="O73" s="150"/>
+      <c r="P73" s="148"/>
+      <c r="Q73" s="158"/>
+      <c r="R73" s="160"/>
       <c r="S73" s="84"/>
       <c r="T73" s="87"/>
       <c r="U73" s="86"/>
@@ -13632,23 +14246,23 @@
       <c r="EL73" s="95"/>
     </row>
     <row r="74" spans="2:142" ht="9" customHeight="1">
-      <c r="B74" s="202"/>
-      <c r="C74" s="191"/>
-      <c r="D74" s="156"/>
-      <c r="E74" s="146"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="148"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="150"/>
-      <c r="K74" s="150"/>
-      <c r="L74" s="154"/>
-      <c r="M74" s="152"/>
-      <c r="N74" s="154"/>
-      <c r="O74" s="152"/>
-      <c r="P74" s="142"/>
-      <c r="Q74" s="160"/>
-      <c r="R74" s="158"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="145"/>
+      <c r="F74" s="149"/>
+      <c r="G74" s="155"/>
+      <c r="H74" s="155"/>
+      <c r="I74" s="155"/>
+      <c r="J74" s="157"/>
+      <c r="K74" s="157"/>
+      <c r="L74" s="153"/>
+      <c r="M74" s="151"/>
+      <c r="N74" s="153"/>
+      <c r="O74" s="151"/>
+      <c r="P74" s="149"/>
+      <c r="Q74" s="159"/>
+      <c r="R74" s="161"/>
       <c r="S74" s="84"/>
       <c r="T74" s="85"/>
       <c r="U74" s="85"/>
@@ -13775,23 +14389,23 @@
       <c r="EL74" s="96"/>
     </row>
     <row r="75" spans="2:142" ht="9" customHeight="1">
-      <c r="B75" s="201"/>
-      <c r="C75" s="191"/>
-      <c r="D75" s="155"/>
-      <c r="E75" s="145"/>
-      <c r="F75" s="141"/>
-      <c r="G75" s="147"/>
-      <c r="H75" s="147"/>
-      <c r="I75" s="147"/>
-      <c r="J75" s="149"/>
-      <c r="K75" s="149"/>
-      <c r="L75" s="153"/>
-      <c r="M75" s="151"/>
-      <c r="N75" s="153"/>
-      <c r="O75" s="151"/>
-      <c r="P75" s="141"/>
-      <c r="Q75" s="159"/>
-      <c r="R75" s="157"/>
+      <c r="B75" s="141"/>
+      <c r="C75" s="143"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="144"/>
+      <c r="F75" s="148"/>
+      <c r="G75" s="154"/>
+      <c r="H75" s="154"/>
+      <c r="I75" s="154"/>
+      <c r="J75" s="156"/>
+      <c r="K75" s="156"/>
+      <c r="L75" s="152"/>
+      <c r="M75" s="150"/>
+      <c r="N75" s="152"/>
+      <c r="O75" s="150"/>
+      <c r="P75" s="148"/>
+      <c r="Q75" s="158"/>
+      <c r="R75" s="160"/>
       <c r="S75" s="84"/>
       <c r="T75" s="87"/>
       <c r="U75" s="86"/>
@@ -13918,23 +14532,23 @@
       <c r="EL75" s="95"/>
     </row>
     <row r="76" spans="2:142" ht="9" customHeight="1">
-      <c r="B76" s="202"/>
-      <c r="C76" s="191"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="142"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="150"/>
-      <c r="K76" s="150"/>
-      <c r="L76" s="154"/>
-      <c r="M76" s="152"/>
-      <c r="N76" s="154"/>
-      <c r="O76" s="152"/>
-      <c r="P76" s="142"/>
-      <c r="Q76" s="160"/>
-      <c r="R76" s="158"/>
+      <c r="B76" s="142"/>
+      <c r="C76" s="143"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="145"/>
+      <c r="F76" s="149"/>
+      <c r="G76" s="155"/>
+      <c r="H76" s="155"/>
+      <c r="I76" s="155"/>
+      <c r="J76" s="157"/>
+      <c r="K76" s="157"/>
+      <c r="L76" s="153"/>
+      <c r="M76" s="151"/>
+      <c r="N76" s="153"/>
+      <c r="O76" s="151"/>
+      <c r="P76" s="149"/>
+      <c r="Q76" s="159"/>
+      <c r="R76" s="161"/>
       <c r="S76" s="84"/>
       <c r="T76" s="85"/>
       <c r="U76" s="85"/>
@@ -14061,23 +14675,23 @@
       <c r="EL76" s="96"/>
     </row>
     <row r="77" spans="2:142" ht="9" customHeight="1">
-      <c r="B77" s="201"/>
-      <c r="C77" s="191"/>
-      <c r="D77" s="155"/>
-      <c r="E77" s="145"/>
-      <c r="F77" s="141"/>
-      <c r="G77" s="147"/>
-      <c r="H77" s="147"/>
-      <c r="I77" s="147"/>
-      <c r="J77" s="149"/>
-      <c r="K77" s="149"/>
-      <c r="L77" s="153"/>
-      <c r="M77" s="151"/>
-      <c r="N77" s="153"/>
-      <c r="O77" s="151"/>
-      <c r="P77" s="141"/>
-      <c r="Q77" s="159"/>
-      <c r="R77" s="157"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="144"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="154"/>
+      <c r="H77" s="154"/>
+      <c r="I77" s="154"/>
+      <c r="J77" s="156"/>
+      <c r="K77" s="156"/>
+      <c r="L77" s="152"/>
+      <c r="M77" s="150"/>
+      <c r="N77" s="152"/>
+      <c r="O77" s="150"/>
+      <c r="P77" s="148"/>
+      <c r="Q77" s="158"/>
+      <c r="R77" s="160"/>
       <c r="S77" s="84"/>
       <c r="T77" s="87"/>
       <c r="U77" s="86"/>
@@ -14204,23 +14818,23 @@
       <c r="EL77" s="95"/>
     </row>
     <row r="78" spans="2:142" ht="9" customHeight="1">
-      <c r="B78" s="202"/>
-      <c r="C78" s="191"/>
-      <c r="D78" s="156"/>
-      <c r="E78" s="146"/>
-      <c r="F78" s="142"/>
-      <c r="G78" s="148"/>
-      <c r="H78" s="148"/>
-      <c r="I78" s="148"/>
-      <c r="J78" s="150"/>
-      <c r="K78" s="150"/>
-      <c r="L78" s="154"/>
-      <c r="M78" s="152"/>
-      <c r="N78" s="154"/>
-      <c r="O78" s="152"/>
-      <c r="P78" s="142"/>
-      <c r="Q78" s="160"/>
-      <c r="R78" s="158"/>
+      <c r="B78" s="142"/>
+      <c r="C78" s="143"/>
+      <c r="D78" s="147"/>
+      <c r="E78" s="145"/>
+      <c r="F78" s="149"/>
+      <c r="G78" s="155"/>
+      <c r="H78" s="155"/>
+      <c r="I78" s="155"/>
+      <c r="J78" s="157"/>
+      <c r="K78" s="157"/>
+      <c r="L78" s="153"/>
+      <c r="M78" s="151"/>
+      <c r="N78" s="153"/>
+      <c r="O78" s="151"/>
+      <c r="P78" s="149"/>
+      <c r="Q78" s="159"/>
+      <c r="R78" s="161"/>
       <c r="S78" s="84"/>
       <c r="T78" s="85"/>
       <c r="U78" s="85"/>
@@ -14347,23 +14961,23 @@
       <c r="EL78" s="96"/>
     </row>
     <row r="79" spans="2:142" ht="9" customHeight="1">
-      <c r="B79" s="201"/>
-      <c r="C79" s="191"/>
-      <c r="D79" s="155"/>
-      <c r="E79" s="145"/>
-      <c r="F79" s="141"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="147"/>
-      <c r="I79" s="147"/>
-      <c r="J79" s="149"/>
-      <c r="K79" s="149"/>
-      <c r="L79" s="153"/>
-      <c r="M79" s="151"/>
-      <c r="N79" s="153"/>
-      <c r="O79" s="151"/>
-      <c r="P79" s="141"/>
-      <c r="Q79" s="159"/>
-      <c r="R79" s="157"/>
+      <c r="B79" s="141"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="146"/>
+      <c r="E79" s="144"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="154"/>
+      <c r="H79" s="154"/>
+      <c r="I79" s="154"/>
+      <c r="J79" s="156"/>
+      <c r="K79" s="156"/>
+      <c r="L79" s="152"/>
+      <c r="M79" s="150"/>
+      <c r="N79" s="152"/>
+      <c r="O79" s="150"/>
+      <c r="P79" s="148"/>
+      <c r="Q79" s="158"/>
+      <c r="R79" s="160"/>
       <c r="S79" s="84"/>
       <c r="T79" s="87"/>
       <c r="U79" s="86"/>
@@ -14490,23 +15104,23 @@
       <c r="EL79" s="95"/>
     </row>
     <row r="80" spans="2:142" ht="9" customHeight="1">
-      <c r="B80" s="202"/>
-      <c r="C80" s="191"/>
-      <c r="D80" s="156"/>
-      <c r="E80" s="146"/>
-      <c r="F80" s="142"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="148"/>
-      <c r="I80" s="148"/>
-      <c r="J80" s="150"/>
-      <c r="K80" s="150"/>
-      <c r="L80" s="154"/>
-      <c r="M80" s="152"/>
-      <c r="N80" s="154"/>
-      <c r="O80" s="152"/>
-      <c r="P80" s="142"/>
-      <c r="Q80" s="160"/>
-      <c r="R80" s="158"/>
+      <c r="B80" s="142"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="147"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="149"/>
+      <c r="G80" s="155"/>
+      <c r="H80" s="155"/>
+      <c r="I80" s="155"/>
+      <c r="J80" s="157"/>
+      <c r="K80" s="157"/>
+      <c r="L80" s="153"/>
+      <c r="M80" s="151"/>
+      <c r="N80" s="153"/>
+      <c r="O80" s="151"/>
+      <c r="P80" s="149"/>
+      <c r="Q80" s="159"/>
+      <c r="R80" s="161"/>
       <c r="S80" s="84"/>
       <c r="T80" s="85"/>
       <c r="U80" s="85"/>
@@ -14633,23 +15247,23 @@
       <c r="EL80" s="96"/>
     </row>
     <row r="81" spans="2:142" ht="9" customHeight="1">
-      <c r="B81" s="201"/>
-      <c r="C81" s="191"/>
-      <c r="D81" s="155"/>
-      <c r="E81" s="145"/>
-      <c r="F81" s="141"/>
-      <c r="G81" s="147"/>
-      <c r="H81" s="147"/>
-      <c r="I81" s="147"/>
-      <c r="J81" s="149"/>
-      <c r="K81" s="149"/>
-      <c r="L81" s="153"/>
-      <c r="M81" s="151"/>
-      <c r="N81" s="153"/>
-      <c r="O81" s="151"/>
-      <c r="P81" s="141"/>
-      <c r="Q81" s="159"/>
-      <c r="R81" s="157"/>
+      <c r="B81" s="141"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="146"/>
+      <c r="E81" s="144"/>
+      <c r="F81" s="148"/>
+      <c r="G81" s="154"/>
+      <c r="H81" s="154"/>
+      <c r="I81" s="154"/>
+      <c r="J81" s="156"/>
+      <c r="K81" s="156"/>
+      <c r="L81" s="152"/>
+      <c r="M81" s="150"/>
+      <c r="N81" s="152"/>
+      <c r="O81" s="150"/>
+      <c r="P81" s="148"/>
+      <c r="Q81" s="158"/>
+      <c r="R81" s="160"/>
       <c r="S81" s="84"/>
       <c r="T81" s="87"/>
       <c r="U81" s="86"/>
@@ -14776,23 +15390,23 @@
       <c r="EL81" s="95"/>
     </row>
     <row r="82" spans="2:142" ht="9" customHeight="1">
-      <c r="B82" s="202"/>
-      <c r="C82" s="191"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="146"/>
-      <c r="F82" s="142"/>
-      <c r="G82" s="148"/>
-      <c r="H82" s="148"/>
-      <c r="I82" s="148"/>
-      <c r="J82" s="150"/>
-      <c r="K82" s="150"/>
-      <c r="L82" s="154"/>
-      <c r="M82" s="152"/>
-      <c r="N82" s="154"/>
-      <c r="O82" s="152"/>
-      <c r="P82" s="142"/>
-      <c r="Q82" s="160"/>
-      <c r="R82" s="158"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="145"/>
+      <c r="F82" s="149"/>
+      <c r="G82" s="155"/>
+      <c r="H82" s="155"/>
+      <c r="I82" s="155"/>
+      <c r="J82" s="157"/>
+      <c r="K82" s="157"/>
+      <c r="L82" s="153"/>
+      <c r="M82" s="151"/>
+      <c r="N82" s="153"/>
+      <c r="O82" s="151"/>
+      <c r="P82" s="149"/>
+      <c r="Q82" s="159"/>
+      <c r="R82" s="161"/>
       <c r="S82" s="84"/>
       <c r="T82" s="85"/>
       <c r="U82" s="85"/>
@@ -14919,23 +15533,23 @@
       <c r="EL82" s="96"/>
     </row>
     <row r="83" spans="2:142" ht="9" customHeight="1">
-      <c r="B83" s="201"/>
-      <c r="C83" s="191"/>
-      <c r="D83" s="155"/>
-      <c r="E83" s="145"/>
-      <c r="F83" s="141"/>
-      <c r="G83" s="147"/>
-      <c r="H83" s="147"/>
-      <c r="I83" s="147"/>
-      <c r="J83" s="149"/>
-      <c r="K83" s="149"/>
-      <c r="L83" s="153"/>
-      <c r="M83" s="151"/>
-      <c r="N83" s="153"/>
-      <c r="O83" s="151"/>
-      <c r="P83" s="141"/>
-      <c r="Q83" s="159"/>
-      <c r="R83" s="157"/>
+      <c r="B83" s="141"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="146"/>
+      <c r="E83" s="144"/>
+      <c r="F83" s="148"/>
+      <c r="G83" s="154"/>
+      <c r="H83" s="154"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="156"/>
+      <c r="K83" s="156"/>
+      <c r="L83" s="152"/>
+      <c r="M83" s="150"/>
+      <c r="N83" s="152"/>
+      <c r="O83" s="150"/>
+      <c r="P83" s="148"/>
+      <c r="Q83" s="158"/>
+      <c r="R83" s="160"/>
       <c r="S83" s="84"/>
       <c r="T83" s="87"/>
       <c r="U83" s="86"/>
@@ -15062,23 +15676,23 @@
       <c r="EL83" s="95"/>
     </row>
     <row r="84" spans="2:142" ht="9" customHeight="1">
-      <c r="B84" s="202"/>
-      <c r="C84" s="191"/>
-      <c r="D84" s="156"/>
-      <c r="E84" s="146"/>
-      <c r="F84" s="142"/>
-      <c r="G84" s="148"/>
-      <c r="H84" s="148"/>
-      <c r="I84" s="148"/>
-      <c r="J84" s="150"/>
-      <c r="K84" s="150"/>
-      <c r="L84" s="154"/>
-      <c r="M84" s="152"/>
-      <c r="N84" s="154"/>
-      <c r="O84" s="152"/>
-      <c r="P84" s="142"/>
-      <c r="Q84" s="160"/>
-      <c r="R84" s="158"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="149"/>
+      <c r="G84" s="155"/>
+      <c r="H84" s="155"/>
+      <c r="I84" s="155"/>
+      <c r="J84" s="157"/>
+      <c r="K84" s="157"/>
+      <c r="L84" s="153"/>
+      <c r="M84" s="151"/>
+      <c r="N84" s="153"/>
+      <c r="O84" s="151"/>
+      <c r="P84" s="149"/>
+      <c r="Q84" s="159"/>
+      <c r="R84" s="161"/>
       <c r="S84" s="84"/>
       <c r="T84" s="85"/>
       <c r="U84" s="85"/>
@@ -15205,23 +15819,23 @@
       <c r="EL84" s="96"/>
     </row>
     <row r="85" spans="2:142" ht="9" customHeight="1">
-      <c r="B85" s="201"/>
-      <c r="C85" s="191"/>
-      <c r="D85" s="155"/>
-      <c r="E85" s="145"/>
-      <c r="F85" s="141"/>
-      <c r="G85" s="147"/>
-      <c r="H85" s="147"/>
-      <c r="I85" s="147"/>
-      <c r="J85" s="149"/>
-      <c r="K85" s="149"/>
-      <c r="L85" s="153"/>
-      <c r="M85" s="151"/>
-      <c r="N85" s="153"/>
-      <c r="O85" s="151"/>
-      <c r="P85" s="141"/>
-      <c r="Q85" s="159"/>
-      <c r="R85" s="157"/>
+      <c r="B85" s="141"/>
+      <c r="C85" s="143"/>
+      <c r="D85" s="146"/>
+      <c r="E85" s="144"/>
+      <c r="F85" s="148"/>
+      <c r="G85" s="154"/>
+      <c r="H85" s="154"/>
+      <c r="I85" s="154"/>
+      <c r="J85" s="156"/>
+      <c r="K85" s="156"/>
+      <c r="L85" s="152"/>
+      <c r="M85" s="150"/>
+      <c r="N85" s="152"/>
+      <c r="O85" s="150"/>
+      <c r="P85" s="148"/>
+      <c r="Q85" s="158"/>
+      <c r="R85" s="160"/>
       <c r="S85" s="84"/>
       <c r="T85" s="87"/>
       <c r="U85" s="86"/>
@@ -15348,23 +15962,23 @@
       <c r="EL85" s="95"/>
     </row>
     <row r="86" spans="2:142" ht="9" customHeight="1">
-      <c r="B86" s="202"/>
-      <c r="C86" s="191"/>
-      <c r="D86" s="156"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="142"/>
-      <c r="G86" s="148"/>
-      <c r="H86" s="148"/>
-      <c r="I86" s="148"/>
-      <c r="J86" s="150"/>
-      <c r="K86" s="150"/>
-      <c r="L86" s="154"/>
-      <c r="M86" s="152"/>
-      <c r="N86" s="154"/>
-      <c r="O86" s="152"/>
-      <c r="P86" s="142"/>
-      <c r="Q86" s="160"/>
-      <c r="R86" s="158"/>
+      <c r="B86" s="142"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="145"/>
+      <c r="F86" s="149"/>
+      <c r="G86" s="155"/>
+      <c r="H86" s="155"/>
+      <c r="I86" s="155"/>
+      <c r="J86" s="157"/>
+      <c r="K86" s="157"/>
+      <c r="L86" s="153"/>
+      <c r="M86" s="151"/>
+      <c r="N86" s="153"/>
+      <c r="O86" s="151"/>
+      <c r="P86" s="149"/>
+      <c r="Q86" s="159"/>
+      <c r="R86" s="161"/>
       <c r="S86" s="84"/>
       <c r="T86" s="85"/>
       <c r="U86" s="85"/>
@@ -15491,23 +16105,23 @@
       <c r="EL86" s="96"/>
     </row>
     <row r="87" spans="2:142" ht="9" customHeight="1">
-      <c r="B87" s="201"/>
-      <c r="C87" s="191"/>
-      <c r="D87" s="155"/>
-      <c r="E87" s="145"/>
-      <c r="F87" s="141"/>
-      <c r="G87" s="147"/>
-      <c r="H87" s="147"/>
-      <c r="I87" s="147"/>
-      <c r="J87" s="149"/>
-      <c r="K87" s="149"/>
-      <c r="L87" s="153"/>
-      <c r="M87" s="151"/>
-      <c r="N87" s="153"/>
-      <c r="O87" s="151"/>
-      <c r="P87" s="141"/>
-      <c r="Q87" s="159"/>
-      <c r="R87" s="157"/>
+      <c r="B87" s="141"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="146"/>
+      <c r="E87" s="144"/>
+      <c r="F87" s="148"/>
+      <c r="G87" s="154"/>
+      <c r="H87" s="154"/>
+      <c r="I87" s="154"/>
+      <c r="J87" s="156"/>
+      <c r="K87" s="156"/>
+      <c r="L87" s="152"/>
+      <c r="M87" s="150"/>
+      <c r="N87" s="152"/>
+      <c r="O87" s="150"/>
+      <c r="P87" s="148"/>
+      <c r="Q87" s="158"/>
+      <c r="R87" s="160"/>
       <c r="S87" s="84"/>
       <c r="T87" s="87"/>
       <c r="U87" s="86"/>
@@ -15634,23 +16248,23 @@
       <c r="EL87" s="95"/>
     </row>
     <row r="88" spans="2:142" ht="9" customHeight="1">
-      <c r="B88" s="202"/>
-      <c r="C88" s="191"/>
-      <c r="D88" s="156"/>
-      <c r="E88" s="146"/>
-      <c r="F88" s="142"/>
-      <c r="G88" s="148"/>
-      <c r="H88" s="148"/>
-      <c r="I88" s="148"/>
-      <c r="J88" s="150"/>
-      <c r="K88" s="150"/>
-      <c r="L88" s="154"/>
-      <c r="M88" s="152"/>
-      <c r="N88" s="154"/>
-      <c r="O88" s="152"/>
-      <c r="P88" s="142"/>
-      <c r="Q88" s="160"/>
-      <c r="R88" s="158"/>
+      <c r="B88" s="142"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="147"/>
+      <c r="E88" s="145"/>
+      <c r="F88" s="149"/>
+      <c r="G88" s="155"/>
+      <c r="H88" s="155"/>
+      <c r="I88" s="155"/>
+      <c r="J88" s="157"/>
+      <c r="K88" s="157"/>
+      <c r="L88" s="153"/>
+      <c r="M88" s="151"/>
+      <c r="N88" s="153"/>
+      <c r="O88" s="151"/>
+      <c r="P88" s="149"/>
+      <c r="Q88" s="159"/>
+      <c r="R88" s="161"/>
       <c r="S88" s="84"/>
       <c r="T88" s="85"/>
       <c r="U88" s="85"/>
@@ -15777,23 +16391,23 @@
       <c r="EL88" s="96"/>
     </row>
     <row r="89" spans="2:142" ht="9" customHeight="1">
-      <c r="B89" s="201"/>
-      <c r="C89" s="191"/>
-      <c r="D89" s="155"/>
-      <c r="E89" s="145"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="147"/>
-      <c r="H89" s="147"/>
-      <c r="I89" s="147"/>
-      <c r="J89" s="149"/>
-      <c r="K89" s="149"/>
-      <c r="L89" s="153"/>
-      <c r="M89" s="151"/>
-      <c r="N89" s="153"/>
-      <c r="O89" s="151"/>
-      <c r="P89" s="141"/>
-      <c r="Q89" s="159"/>
-      <c r="R89" s="157"/>
+      <c r="B89" s="141"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="144"/>
+      <c r="F89" s="148"/>
+      <c r="G89" s="154"/>
+      <c r="H89" s="154"/>
+      <c r="I89" s="154"/>
+      <c r="J89" s="156"/>
+      <c r="K89" s="156"/>
+      <c r="L89" s="152"/>
+      <c r="M89" s="150"/>
+      <c r="N89" s="152"/>
+      <c r="O89" s="150"/>
+      <c r="P89" s="148"/>
+      <c r="Q89" s="158"/>
+      <c r="R89" s="160"/>
       <c r="S89" s="84"/>
       <c r="T89" s="87"/>
       <c r="U89" s="86"/>
@@ -15920,23 +16534,23 @@
       <c r="EL89" s="95"/>
     </row>
     <row r="90" spans="2:142" ht="9" customHeight="1">
-      <c r="B90" s="202"/>
-      <c r="C90" s="191"/>
-      <c r="D90" s="156"/>
-      <c r="E90" s="146"/>
-      <c r="F90" s="142"/>
-      <c r="G90" s="148"/>
-      <c r="H90" s="148"/>
-      <c r="I90" s="148"/>
-      <c r="J90" s="150"/>
-      <c r="K90" s="150"/>
-      <c r="L90" s="154"/>
-      <c r="M90" s="152"/>
-      <c r="N90" s="154"/>
-      <c r="O90" s="152"/>
-      <c r="P90" s="142"/>
-      <c r="Q90" s="160"/>
-      <c r="R90" s="158"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="147"/>
+      <c r="E90" s="145"/>
+      <c r="F90" s="149"/>
+      <c r="G90" s="155"/>
+      <c r="H90" s="155"/>
+      <c r="I90" s="155"/>
+      <c r="J90" s="157"/>
+      <c r="K90" s="157"/>
+      <c r="L90" s="153"/>
+      <c r="M90" s="151"/>
+      <c r="N90" s="153"/>
+      <c r="O90" s="151"/>
+      <c r="P90" s="149"/>
+      <c r="Q90" s="159"/>
+      <c r="R90" s="161"/>
       <c r="S90" s="84"/>
       <c r="T90" s="85"/>
       <c r="U90" s="85"/>
@@ -16063,23 +16677,23 @@
       <c r="EL90" s="96"/>
     </row>
     <row r="91" spans="2:142" ht="9" customHeight="1">
-      <c r="B91" s="201"/>
-      <c r="C91" s="191"/>
-      <c r="D91" s="155"/>
-      <c r="E91" s="145"/>
-      <c r="F91" s="141"/>
-      <c r="G91" s="147"/>
-      <c r="H91" s="147"/>
-      <c r="I91" s="147"/>
-      <c r="J91" s="149"/>
-      <c r="K91" s="149"/>
-      <c r="L91" s="153"/>
-      <c r="M91" s="151"/>
-      <c r="N91" s="153"/>
-      <c r="O91" s="151"/>
-      <c r="P91" s="141"/>
-      <c r="Q91" s="159"/>
-      <c r="R91" s="157"/>
+      <c r="B91" s="141"/>
+      <c r="C91" s="143"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="144"/>
+      <c r="F91" s="148"/>
+      <c r="G91" s="154"/>
+      <c r="H91" s="154"/>
+      <c r="I91" s="154"/>
+      <c r="J91" s="156"/>
+      <c r="K91" s="156"/>
+      <c r="L91" s="152"/>
+      <c r="M91" s="150"/>
+      <c r="N91" s="152"/>
+      <c r="O91" s="150"/>
+      <c r="P91" s="148"/>
+      <c r="Q91" s="158"/>
+      <c r="R91" s="160"/>
       <c r="S91" s="84"/>
       <c r="T91" s="87"/>
       <c r="U91" s="86"/>
@@ -16206,23 +16820,23 @@
       <c r="EL91" s="95"/>
     </row>
     <row r="92" spans="2:142" ht="9" customHeight="1">
-      <c r="B92" s="202"/>
-      <c r="C92" s="191"/>
-      <c r="D92" s="156"/>
-      <c r="E92" s="146"/>
-      <c r="F92" s="142"/>
-      <c r="G92" s="148"/>
-      <c r="H92" s="148"/>
-      <c r="I92" s="148"/>
-      <c r="J92" s="150"/>
-      <c r="K92" s="150"/>
-      <c r="L92" s="154"/>
-      <c r="M92" s="152"/>
-      <c r="N92" s="154"/>
-      <c r="O92" s="152"/>
-      <c r="P92" s="142"/>
-      <c r="Q92" s="160"/>
-      <c r="R92" s="158"/>
+      <c r="B92" s="142"/>
+      <c r="C92" s="143"/>
+      <c r="D92" s="147"/>
+      <c r="E92" s="145"/>
+      <c r="F92" s="149"/>
+      <c r="G92" s="155"/>
+      <c r="H92" s="155"/>
+      <c r="I92" s="155"/>
+      <c r="J92" s="157"/>
+      <c r="K92" s="157"/>
+      <c r="L92" s="153"/>
+      <c r="M92" s="151"/>
+      <c r="N92" s="153"/>
+      <c r="O92" s="151"/>
+      <c r="P92" s="149"/>
+      <c r="Q92" s="159"/>
+      <c r="R92" s="161"/>
       <c r="S92" s="84"/>
       <c r="T92" s="85"/>
       <c r="U92" s="85"/>
@@ -16349,23 +16963,23 @@
       <c r="EL92" s="96"/>
     </row>
     <row r="93" spans="2:142" ht="9" customHeight="1">
-      <c r="B93" s="201"/>
-      <c r="C93" s="191"/>
-      <c r="D93" s="155"/>
-      <c r="E93" s="145"/>
-      <c r="F93" s="141"/>
-      <c r="G93" s="147"/>
-      <c r="H93" s="147"/>
-      <c r="I93" s="147"/>
-      <c r="J93" s="149"/>
-      <c r="K93" s="149"/>
-      <c r="L93" s="153"/>
-      <c r="M93" s="151"/>
-      <c r="N93" s="153"/>
-      <c r="O93" s="151"/>
-      <c r="P93" s="141"/>
-      <c r="Q93" s="159"/>
-      <c r="R93" s="157"/>
+      <c r="B93" s="141"/>
+      <c r="C93" s="143"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="144"/>
+      <c r="F93" s="148"/>
+      <c r="G93" s="154"/>
+      <c r="H93" s="154"/>
+      <c r="I93" s="154"/>
+      <c r="J93" s="156"/>
+      <c r="K93" s="156"/>
+      <c r="L93" s="152"/>
+      <c r="M93" s="150"/>
+      <c r="N93" s="152"/>
+      <c r="O93" s="150"/>
+      <c r="P93" s="148"/>
+      <c r="Q93" s="158"/>
+      <c r="R93" s="160"/>
       <c r="S93" s="84"/>
       <c r="T93" s="87"/>
       <c r="U93" s="86"/>
@@ -16492,23 +17106,23 @@
       <c r="EL93" s="95"/>
     </row>
     <row r="94" spans="2:142" ht="9" customHeight="1">
-      <c r="B94" s="202"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="156"/>
-      <c r="E94" s="146"/>
-      <c r="F94" s="142"/>
-      <c r="G94" s="148"/>
-      <c r="H94" s="148"/>
-      <c r="I94" s="148"/>
-      <c r="J94" s="150"/>
-      <c r="K94" s="150"/>
-      <c r="L94" s="154"/>
-      <c r="M94" s="152"/>
-      <c r="N94" s="154"/>
-      <c r="O94" s="152"/>
-      <c r="P94" s="142"/>
-      <c r="Q94" s="160"/>
-      <c r="R94" s="158"/>
+      <c r="B94" s="142"/>
+      <c r="C94" s="143"/>
+      <c r="D94" s="147"/>
+      <c r="E94" s="145"/>
+      <c r="F94" s="149"/>
+      <c r="G94" s="155"/>
+      <c r="H94" s="155"/>
+      <c r="I94" s="155"/>
+      <c r="J94" s="157"/>
+      <c r="K94" s="157"/>
+      <c r="L94" s="153"/>
+      <c r="M94" s="151"/>
+      <c r="N94" s="153"/>
+      <c r="O94" s="151"/>
+      <c r="P94" s="149"/>
+      <c r="Q94" s="159"/>
+      <c r="R94" s="161"/>
       <c r="S94" s="84"/>
       <c r="T94" s="85"/>
       <c r="U94" s="85"/>
@@ -16635,23 +17249,23 @@
       <c r="EL94" s="96"/>
     </row>
     <row r="95" spans="2:142" ht="9" customHeight="1">
-      <c r="B95" s="201"/>
-      <c r="C95" s="191"/>
-      <c r="D95" s="155"/>
-      <c r="E95" s="145"/>
-      <c r="F95" s="141"/>
-      <c r="G95" s="147"/>
-      <c r="H95" s="147"/>
-      <c r="I95" s="147"/>
-      <c r="J95" s="149"/>
-      <c r="K95" s="149"/>
-      <c r="L95" s="153"/>
-      <c r="M95" s="151"/>
-      <c r="N95" s="153"/>
-      <c r="O95" s="151"/>
-      <c r="P95" s="141"/>
-      <c r="Q95" s="159"/>
-      <c r="R95" s="157"/>
+      <c r="B95" s="141"/>
+      <c r="C95" s="143"/>
+      <c r="D95" s="146"/>
+      <c r="E95" s="144"/>
+      <c r="F95" s="148"/>
+      <c r="G95" s="154"/>
+      <c r="H95" s="154"/>
+      <c r="I95" s="154"/>
+      <c r="J95" s="156"/>
+      <c r="K95" s="156"/>
+      <c r="L95" s="152"/>
+      <c r="M95" s="150"/>
+      <c r="N95" s="152"/>
+      <c r="O95" s="150"/>
+      <c r="P95" s="148"/>
+      <c r="Q95" s="158"/>
+      <c r="R95" s="160"/>
       <c r="S95" s="84"/>
       <c r="T95" s="87"/>
       <c r="U95" s="86"/>
@@ -16778,23 +17392,23 @@
       <c r="EL95" s="95"/>
     </row>
     <row r="96" spans="2:142" ht="9" customHeight="1">
-      <c r="B96" s="202"/>
-      <c r="C96" s="191"/>
-      <c r="D96" s="156"/>
-      <c r="E96" s="146"/>
-      <c r="F96" s="142"/>
-      <c r="G96" s="148"/>
-      <c r="H96" s="148"/>
-      <c r="I96" s="148"/>
-      <c r="J96" s="150"/>
-      <c r="K96" s="150"/>
-      <c r="L96" s="154"/>
-      <c r="M96" s="152"/>
-      <c r="N96" s="154"/>
-      <c r="O96" s="152"/>
-      <c r="P96" s="142"/>
-      <c r="Q96" s="160"/>
-      <c r="R96" s="158"/>
+      <c r="B96" s="142"/>
+      <c r="C96" s="143"/>
+      <c r="D96" s="147"/>
+      <c r="E96" s="145"/>
+      <c r="F96" s="149"/>
+      <c r="G96" s="155"/>
+      <c r="H96" s="155"/>
+      <c r="I96" s="155"/>
+      <c r="J96" s="157"/>
+      <c r="K96" s="157"/>
+      <c r="L96" s="153"/>
+      <c r="M96" s="151"/>
+      <c r="N96" s="153"/>
+      <c r="O96" s="151"/>
+      <c r="P96" s="149"/>
+      <c r="Q96" s="159"/>
+      <c r="R96" s="161"/>
       <c r="S96" s="84"/>
       <c r="T96" s="85"/>
       <c r="U96" s="85"/>
@@ -16921,23 +17535,23 @@
       <c r="EL96" s="96"/>
     </row>
     <row r="97" spans="2:142" ht="9" customHeight="1">
-      <c r="B97" s="201"/>
-      <c r="C97" s="191"/>
-      <c r="D97" s="155"/>
-      <c r="E97" s="145"/>
-      <c r="F97" s="141"/>
-      <c r="G97" s="147"/>
-      <c r="H97" s="147"/>
-      <c r="I97" s="147"/>
-      <c r="J97" s="149"/>
-      <c r="K97" s="149"/>
-      <c r="L97" s="153"/>
-      <c r="M97" s="151"/>
-      <c r="N97" s="153"/>
-      <c r="O97" s="151"/>
-      <c r="P97" s="141"/>
-      <c r="Q97" s="159"/>
-      <c r="R97" s="157"/>
+      <c r="B97" s="141"/>
+      <c r="C97" s="143"/>
+      <c r="D97" s="146"/>
+      <c r="E97" s="144"/>
+      <c r="F97" s="148"/>
+      <c r="G97" s="154"/>
+      <c r="H97" s="154"/>
+      <c r="I97" s="154"/>
+      <c r="J97" s="156"/>
+      <c r="K97" s="156"/>
+      <c r="L97" s="152"/>
+      <c r="M97" s="150"/>
+      <c r="N97" s="152"/>
+      <c r="O97" s="150"/>
+      <c r="P97" s="148"/>
+      <c r="Q97" s="158"/>
+      <c r="R97" s="160"/>
       <c r="S97" s="84"/>
       <c r="T97" s="87"/>
       <c r="U97" s="86"/>
@@ -17064,23 +17678,23 @@
       <c r="EL97" s="95"/>
     </row>
     <row r="98" spans="2:142" ht="9" customHeight="1">
-      <c r="B98" s="202"/>
-      <c r="C98" s="191"/>
-      <c r="D98" s="156"/>
-      <c r="E98" s="146"/>
-      <c r="F98" s="142"/>
-      <c r="G98" s="148"/>
-      <c r="H98" s="148"/>
-      <c r="I98" s="148"/>
-      <c r="J98" s="150"/>
-      <c r="K98" s="150"/>
-      <c r="L98" s="154"/>
-      <c r="M98" s="152"/>
-      <c r="N98" s="154"/>
-      <c r="O98" s="152"/>
-      <c r="P98" s="142"/>
-      <c r="Q98" s="160"/>
-      <c r="R98" s="158"/>
+      <c r="B98" s="142"/>
+      <c r="C98" s="143"/>
+      <c r="D98" s="147"/>
+      <c r="E98" s="145"/>
+      <c r="F98" s="149"/>
+      <c r="G98" s="155"/>
+      <c r="H98" s="155"/>
+      <c r="I98" s="155"/>
+      <c r="J98" s="157"/>
+      <c r="K98" s="157"/>
+      <c r="L98" s="153"/>
+      <c r="M98" s="151"/>
+      <c r="N98" s="153"/>
+      <c r="O98" s="151"/>
+      <c r="P98" s="149"/>
+      <c r="Q98" s="159"/>
+      <c r="R98" s="161"/>
       <c r="S98" s="84"/>
       <c r="T98" s="85"/>
       <c r="U98" s="85"/>
@@ -17207,23 +17821,23 @@
       <c r="EL98" s="96"/>
     </row>
     <row r="99" spans="2:142" ht="9" customHeight="1">
-      <c r="B99" s="201"/>
-      <c r="C99" s="191"/>
-      <c r="D99" s="155"/>
-      <c r="E99" s="145"/>
-      <c r="F99" s="141"/>
-      <c r="G99" s="147"/>
-      <c r="H99" s="147"/>
-      <c r="I99" s="147"/>
-      <c r="J99" s="149"/>
-      <c r="K99" s="149"/>
-      <c r="L99" s="153"/>
-      <c r="M99" s="151"/>
-      <c r="N99" s="153"/>
-      <c r="O99" s="151"/>
-      <c r="P99" s="141"/>
-      <c r="Q99" s="159"/>
-      <c r="R99" s="157"/>
+      <c r="B99" s="141"/>
+      <c r="C99" s="143"/>
+      <c r="D99" s="146"/>
+      <c r="E99" s="144"/>
+      <c r="F99" s="148"/>
+      <c r="G99" s="154"/>
+      <c r="H99" s="154"/>
+      <c r="I99" s="154"/>
+      <c r="J99" s="156"/>
+      <c r="K99" s="156"/>
+      <c r="L99" s="152"/>
+      <c r="M99" s="150"/>
+      <c r="N99" s="152"/>
+      <c r="O99" s="150"/>
+      <c r="P99" s="148"/>
+      <c r="Q99" s="158"/>
+      <c r="R99" s="160"/>
       <c r="S99" s="84"/>
       <c r="T99" s="87"/>
       <c r="U99" s="86"/>
@@ -17350,23 +17964,23 @@
       <c r="EL99" s="95"/>
     </row>
     <row r="100" spans="2:142" ht="9" customHeight="1">
-      <c r="B100" s="202"/>
-      <c r="C100" s="191"/>
-      <c r="D100" s="156"/>
-      <c r="E100" s="146"/>
-      <c r="F100" s="142"/>
-      <c r="G100" s="148"/>
-      <c r="H100" s="148"/>
-      <c r="I100" s="148"/>
-      <c r="J100" s="150"/>
-      <c r="K100" s="150"/>
-      <c r="L100" s="154"/>
-      <c r="M100" s="152"/>
-      <c r="N100" s="154"/>
-      <c r="O100" s="152"/>
-      <c r="P100" s="142"/>
-      <c r="Q100" s="160"/>
-      <c r="R100" s="158"/>
+      <c r="B100" s="142"/>
+      <c r="C100" s="143"/>
+      <c r="D100" s="147"/>
+      <c r="E100" s="145"/>
+      <c r="F100" s="149"/>
+      <c r="G100" s="155"/>
+      <c r="H100" s="155"/>
+      <c r="I100" s="155"/>
+      <c r="J100" s="157"/>
+      <c r="K100" s="157"/>
+      <c r="L100" s="153"/>
+      <c r="M100" s="151"/>
+      <c r="N100" s="153"/>
+      <c r="O100" s="151"/>
+      <c r="P100" s="149"/>
+      <c r="Q100" s="159"/>
+      <c r="R100" s="161"/>
       <c r="S100" s="84"/>
       <c r="T100" s="85"/>
       <c r="U100" s="85"/>
@@ -17493,23 +18107,23 @@
       <c r="EL100" s="96"/>
     </row>
     <row r="101" spans="2:142" ht="9" customHeight="1">
-      <c r="B101" s="201"/>
-      <c r="C101" s="191"/>
-      <c r="D101" s="155"/>
-      <c r="E101" s="145"/>
-      <c r="F101" s="141"/>
-      <c r="G101" s="147"/>
-      <c r="H101" s="147"/>
-      <c r="I101" s="147"/>
-      <c r="J101" s="149"/>
-      <c r="K101" s="149"/>
-      <c r="L101" s="153"/>
-      <c r="M101" s="151"/>
-      <c r="N101" s="153"/>
-      <c r="O101" s="151"/>
-      <c r="P101" s="141"/>
-      <c r="Q101" s="159"/>
-      <c r="R101" s="157"/>
+      <c r="B101" s="141"/>
+      <c r="C101" s="143"/>
+      <c r="D101" s="146"/>
+      <c r="E101" s="144"/>
+      <c r="F101" s="148"/>
+      <c r="G101" s="154"/>
+      <c r="H101" s="154"/>
+      <c r="I101" s="154"/>
+      <c r="J101" s="156"/>
+      <c r="K101" s="156"/>
+      <c r="L101" s="152"/>
+      <c r="M101" s="150"/>
+      <c r="N101" s="152"/>
+      <c r="O101" s="150"/>
+      <c r="P101" s="148"/>
+      <c r="Q101" s="158"/>
+      <c r="R101" s="160"/>
       <c r="S101" s="84"/>
       <c r="T101" s="87"/>
       <c r="U101" s="86"/>
@@ -17636,23 +18250,23 @@
       <c r="EL101" s="95"/>
     </row>
     <row r="102" spans="2:142" ht="9" customHeight="1">
-      <c r="B102" s="202"/>
-      <c r="C102" s="191"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="146"/>
-      <c r="F102" s="142"/>
-      <c r="G102" s="148"/>
-      <c r="H102" s="148"/>
-      <c r="I102" s="148"/>
-      <c r="J102" s="150"/>
-      <c r="K102" s="150"/>
-      <c r="L102" s="154"/>
-      <c r="M102" s="152"/>
-      <c r="N102" s="154"/>
-      <c r="O102" s="152"/>
-      <c r="P102" s="142"/>
-      <c r="Q102" s="160"/>
-      <c r="R102" s="158"/>
+      <c r="B102" s="142"/>
+      <c r="C102" s="143"/>
+      <c r="D102" s="147"/>
+      <c r="E102" s="145"/>
+      <c r="F102" s="149"/>
+      <c r="G102" s="155"/>
+      <c r="H102" s="155"/>
+      <c r="I102" s="155"/>
+      <c r="J102" s="157"/>
+      <c r="K102" s="157"/>
+      <c r="L102" s="153"/>
+      <c r="M102" s="151"/>
+      <c r="N102" s="153"/>
+      <c r="O102" s="151"/>
+      <c r="P102" s="149"/>
+      <c r="Q102" s="159"/>
+      <c r="R102" s="161"/>
       <c r="S102" s="84"/>
       <c r="T102" s="85"/>
       <c r="U102" s="85"/>
@@ -17779,23 +18393,23 @@
       <c r="EL102" s="96"/>
     </row>
     <row r="103" spans="2:142" ht="9" customHeight="1">
-      <c r="B103" s="201"/>
-      <c r="C103" s="191"/>
-      <c r="D103" s="155"/>
-      <c r="E103" s="145"/>
-      <c r="F103" s="141"/>
-      <c r="G103" s="147"/>
-      <c r="H103" s="147"/>
-      <c r="I103" s="147"/>
-      <c r="J103" s="149"/>
-      <c r="K103" s="149"/>
-      <c r="L103" s="153"/>
-      <c r="M103" s="151"/>
-      <c r="N103" s="153"/>
-      <c r="O103" s="151"/>
-      <c r="P103" s="141"/>
-      <c r="Q103" s="159"/>
-      <c r="R103" s="157"/>
+      <c r="B103" s="141"/>
+      <c r="C103" s="143"/>
+      <c r="D103" s="146"/>
+      <c r="E103" s="144"/>
+      <c r="F103" s="148"/>
+      <c r="G103" s="154"/>
+      <c r="H103" s="154"/>
+      <c r="I103" s="154"/>
+      <c r="J103" s="156"/>
+      <c r="K103" s="156"/>
+      <c r="L103" s="152"/>
+      <c r="M103" s="150"/>
+      <c r="N103" s="152"/>
+      <c r="O103" s="150"/>
+      <c r="P103" s="148"/>
+      <c r="Q103" s="158"/>
+      <c r="R103" s="160"/>
       <c r="S103" s="84"/>
       <c r="T103" s="87"/>
       <c r="U103" s="86"/>
@@ -17922,23 +18536,23 @@
       <c r="EL103" s="95"/>
     </row>
     <row r="104" spans="2:142" ht="9" customHeight="1">
-      <c r="B104" s="202"/>
-      <c r="C104" s="191"/>
-      <c r="D104" s="156"/>
-      <c r="E104" s="146"/>
-      <c r="F104" s="142"/>
-      <c r="G104" s="148"/>
-      <c r="H104" s="148"/>
-      <c r="I104" s="148"/>
-      <c r="J104" s="150"/>
-      <c r="K104" s="150"/>
-      <c r="L104" s="154"/>
-      <c r="M104" s="152"/>
-      <c r="N104" s="154"/>
-      <c r="O104" s="152"/>
-      <c r="P104" s="142"/>
-      <c r="Q104" s="160"/>
-      <c r="R104" s="158"/>
+      <c r="B104" s="142"/>
+      <c r="C104" s="143"/>
+      <c r="D104" s="147"/>
+      <c r="E104" s="145"/>
+      <c r="F104" s="149"/>
+      <c r="G104" s="155"/>
+      <c r="H104" s="155"/>
+      <c r="I104" s="155"/>
+      <c r="J104" s="157"/>
+      <c r="K104" s="157"/>
+      <c r="L104" s="153"/>
+      <c r="M104" s="151"/>
+      <c r="N104" s="153"/>
+      <c r="O104" s="151"/>
+      <c r="P104" s="149"/>
+      <c r="Q104" s="159"/>
+      <c r="R104" s="161"/>
       <c r="S104" s="84"/>
       <c r="T104" s="85"/>
       <c r="U104" s="85"/>
@@ -18065,23 +18679,23 @@
       <c r="EL104" s="96"/>
     </row>
     <row r="105" spans="2:142" ht="9" customHeight="1">
-      <c r="B105" s="201"/>
-      <c r="C105" s="191"/>
-      <c r="D105" s="155"/>
-      <c r="E105" s="145"/>
-      <c r="F105" s="141"/>
-      <c r="G105" s="147"/>
-      <c r="H105" s="147"/>
-      <c r="I105" s="147"/>
-      <c r="J105" s="149"/>
-      <c r="K105" s="149"/>
-      <c r="L105" s="153"/>
-      <c r="M105" s="151"/>
-      <c r="N105" s="153"/>
-      <c r="O105" s="151"/>
-      <c r="P105" s="141"/>
-      <c r="Q105" s="159"/>
-      <c r="R105" s="157"/>
+      <c r="B105" s="141"/>
+      <c r="C105" s="143"/>
+      <c r="D105" s="146"/>
+      <c r="E105" s="144"/>
+      <c r="F105" s="148"/>
+      <c r="G105" s="154"/>
+      <c r="H105" s="154"/>
+      <c r="I105" s="154"/>
+      <c r="J105" s="156"/>
+      <c r="K105" s="156"/>
+      <c r="L105" s="152"/>
+      <c r="M105" s="150"/>
+      <c r="N105" s="152"/>
+      <c r="O105" s="150"/>
+      <c r="P105" s="148"/>
+      <c r="Q105" s="158"/>
+      <c r="R105" s="160"/>
       <c r="S105" s="84"/>
       <c r="T105" s="87"/>
       <c r="U105" s="86"/>
@@ -18208,23 +18822,23 @@
       <c r="EL105" s="95"/>
     </row>
     <row r="106" spans="2:142" ht="9" customHeight="1">
-      <c r="B106" s="202"/>
-      <c r="C106" s="191"/>
-      <c r="D106" s="156"/>
-      <c r="E106" s="146"/>
-      <c r="F106" s="142"/>
-      <c r="G106" s="148"/>
-      <c r="H106" s="148"/>
-      <c r="I106" s="148"/>
-      <c r="J106" s="150"/>
-      <c r="K106" s="150"/>
-      <c r="L106" s="154"/>
-      <c r="M106" s="152"/>
-      <c r="N106" s="154"/>
-      <c r="O106" s="152"/>
-      <c r="P106" s="142"/>
-      <c r="Q106" s="160"/>
-      <c r="R106" s="158"/>
+      <c r="B106" s="142"/>
+      <c r="C106" s="143"/>
+      <c r="D106" s="147"/>
+      <c r="E106" s="145"/>
+      <c r="F106" s="149"/>
+      <c r="G106" s="155"/>
+      <c r="H106" s="155"/>
+      <c r="I106" s="155"/>
+      <c r="J106" s="157"/>
+      <c r="K106" s="157"/>
+      <c r="L106" s="153"/>
+      <c r="M106" s="151"/>
+      <c r="N106" s="153"/>
+      <c r="O106" s="151"/>
+      <c r="P106" s="149"/>
+      <c r="Q106" s="159"/>
+      <c r="R106" s="161"/>
       <c r="S106" s="84"/>
       <c r="T106" s="85"/>
       <c r="U106" s="85"/>
@@ -18351,23 +18965,23 @@
       <c r="EL106" s="96"/>
     </row>
     <row r="107" spans="2:142" ht="9" customHeight="1">
-      <c r="B107" s="201"/>
-      <c r="C107" s="191"/>
-      <c r="D107" s="155"/>
-      <c r="E107" s="145"/>
-      <c r="F107" s="141"/>
-      <c r="G107" s="147"/>
-      <c r="H107" s="147"/>
-      <c r="I107" s="147"/>
-      <c r="J107" s="149"/>
-      <c r="K107" s="149"/>
-      <c r="L107" s="153"/>
-      <c r="M107" s="151"/>
-      <c r="N107" s="153"/>
-      <c r="O107" s="151"/>
-      <c r="P107" s="141"/>
-      <c r="Q107" s="159"/>
-      <c r="R107" s="157"/>
+      <c r="B107" s="141"/>
+      <c r="C107" s="143"/>
+      <c r="D107" s="146"/>
+      <c r="E107" s="144"/>
+      <c r="F107" s="148"/>
+      <c r="G107" s="154"/>
+      <c r="H107" s="154"/>
+      <c r="I107" s="154"/>
+      <c r="J107" s="156"/>
+      <c r="K107" s="156"/>
+      <c r="L107" s="152"/>
+      <c r="M107" s="150"/>
+      <c r="N107" s="152"/>
+      <c r="O107" s="150"/>
+      <c r="P107" s="148"/>
+      <c r="Q107" s="158"/>
+      <c r="R107" s="160"/>
       <c r="S107" s="84"/>
       <c r="T107" s="87"/>
       <c r="U107" s="86"/>
@@ -18494,23 +19108,23 @@
       <c r="EL107" s="95"/>
     </row>
     <row r="108" spans="2:142" ht="9" customHeight="1">
-      <c r="B108" s="202"/>
-      <c r="C108" s="191"/>
-      <c r="D108" s="156"/>
-      <c r="E108" s="146"/>
-      <c r="F108" s="142"/>
-      <c r="G108" s="148"/>
-      <c r="H108" s="148"/>
-      <c r="I108" s="148"/>
-      <c r="J108" s="150"/>
-      <c r="K108" s="150"/>
-      <c r="L108" s="154"/>
-      <c r="M108" s="152"/>
-      <c r="N108" s="154"/>
-      <c r="O108" s="152"/>
-      <c r="P108" s="142"/>
-      <c r="Q108" s="160"/>
-      <c r="R108" s="158"/>
+      <c r="B108" s="142"/>
+      <c r="C108" s="143"/>
+      <c r="D108" s="147"/>
+      <c r="E108" s="145"/>
+      <c r="F108" s="149"/>
+      <c r="G108" s="155"/>
+      <c r="H108" s="155"/>
+      <c r="I108" s="155"/>
+      <c r="J108" s="157"/>
+      <c r="K108" s="157"/>
+      <c r="L108" s="153"/>
+      <c r="M108" s="151"/>
+      <c r="N108" s="153"/>
+      <c r="O108" s="151"/>
+      <c r="P108" s="149"/>
+      <c r="Q108" s="159"/>
+      <c r="R108" s="161"/>
       <c r="S108" s="84"/>
       <c r="T108" s="85"/>
       <c r="U108" s="85"/>
@@ -18637,23 +19251,23 @@
       <c r="EL108" s="96"/>
     </row>
     <row r="109" spans="2:142" ht="9" customHeight="1">
-      <c r="B109" s="201"/>
-      <c r="C109" s="191"/>
-      <c r="D109" s="155"/>
-      <c r="E109" s="145"/>
-      <c r="F109" s="141"/>
-      <c r="G109" s="147"/>
-      <c r="H109" s="147"/>
-      <c r="I109" s="147"/>
-      <c r="J109" s="149"/>
-      <c r="K109" s="149"/>
-      <c r="L109" s="153"/>
-      <c r="M109" s="151"/>
-      <c r="N109" s="153"/>
-      <c r="O109" s="151"/>
-      <c r="P109" s="141"/>
-      <c r="Q109" s="159"/>
-      <c r="R109" s="157"/>
+      <c r="B109" s="141"/>
+      <c r="C109" s="143"/>
+      <c r="D109" s="146"/>
+      <c r="E109" s="144"/>
+      <c r="F109" s="148"/>
+      <c r="G109" s="154"/>
+      <c r="H109" s="154"/>
+      <c r="I109" s="154"/>
+      <c r="J109" s="156"/>
+      <c r="K109" s="156"/>
+      <c r="L109" s="152"/>
+      <c r="M109" s="150"/>
+      <c r="N109" s="152"/>
+      <c r="O109" s="150"/>
+      <c r="P109" s="148"/>
+      <c r="Q109" s="158"/>
+      <c r="R109" s="160"/>
       <c r="S109" s="84"/>
       <c r="T109" s="87"/>
       <c r="U109" s="86"/>
@@ -18780,23 +19394,23 @@
       <c r="EL109" s="95"/>
     </row>
     <row r="110" spans="2:142" ht="9" customHeight="1">
-      <c r="B110" s="202"/>
-      <c r="C110" s="191"/>
-      <c r="D110" s="156"/>
-      <c r="E110" s="146"/>
-      <c r="F110" s="142"/>
-      <c r="G110" s="148"/>
-      <c r="H110" s="148"/>
-      <c r="I110" s="148"/>
-      <c r="J110" s="150"/>
-      <c r="K110" s="150"/>
-      <c r="L110" s="154"/>
-      <c r="M110" s="152"/>
-      <c r="N110" s="154"/>
-      <c r="O110" s="152"/>
-      <c r="P110" s="142"/>
-      <c r="Q110" s="160"/>
-      <c r="R110" s="158"/>
+      <c r="B110" s="142"/>
+      <c r="C110" s="143"/>
+      <c r="D110" s="147"/>
+      <c r="E110" s="145"/>
+      <c r="F110" s="149"/>
+      <c r="G110" s="155"/>
+      <c r="H110" s="155"/>
+      <c r="I110" s="155"/>
+      <c r="J110" s="157"/>
+      <c r="K110" s="157"/>
+      <c r="L110" s="153"/>
+      <c r="M110" s="151"/>
+      <c r="N110" s="153"/>
+      <c r="O110" s="151"/>
+      <c r="P110" s="149"/>
+      <c r="Q110" s="159"/>
+      <c r="R110" s="161"/>
       <c r="S110" s="84"/>
       <c r="T110" s="85"/>
       <c r="U110" s="85"/>
@@ -18923,23 +19537,23 @@
       <c r="EL110" s="96"/>
     </row>
     <row r="111" spans="2:142" ht="9" customHeight="1">
-      <c r="B111" s="201"/>
-      <c r="C111" s="191"/>
-      <c r="D111" s="155"/>
-      <c r="E111" s="145"/>
-      <c r="F111" s="141"/>
-      <c r="G111" s="147"/>
-      <c r="H111" s="147"/>
-      <c r="I111" s="147"/>
-      <c r="J111" s="149"/>
-      <c r="K111" s="149"/>
-      <c r="L111" s="153"/>
-      <c r="M111" s="151"/>
-      <c r="N111" s="153"/>
-      <c r="O111" s="151"/>
-      <c r="P111" s="141"/>
-      <c r="Q111" s="159"/>
-      <c r="R111" s="157"/>
+      <c r="B111" s="141"/>
+      <c r="C111" s="143"/>
+      <c r="D111" s="146"/>
+      <c r="E111" s="144"/>
+      <c r="F111" s="148"/>
+      <c r="G111" s="154"/>
+      <c r="H111" s="154"/>
+      <c r="I111" s="154"/>
+      <c r="J111" s="156"/>
+      <c r="K111" s="156"/>
+      <c r="L111" s="152"/>
+      <c r="M111" s="150"/>
+      <c r="N111" s="152"/>
+      <c r="O111" s="150"/>
+      <c r="P111" s="148"/>
+      <c r="Q111" s="158"/>
+      <c r="R111" s="160"/>
       <c r="S111" s="84"/>
       <c r="T111" s="87"/>
       <c r="U111" s="86"/>
@@ -19066,23 +19680,23 @@
       <c r="EL111" s="95"/>
     </row>
     <row r="112" spans="2:142" ht="9" customHeight="1">
-      <c r="B112" s="202"/>
-      <c r="C112" s="191"/>
-      <c r="D112" s="156"/>
-      <c r="E112" s="146"/>
-      <c r="F112" s="142"/>
-      <c r="G112" s="148"/>
-      <c r="H112" s="148"/>
-      <c r="I112" s="148"/>
-      <c r="J112" s="150"/>
-      <c r="K112" s="150"/>
-      <c r="L112" s="154"/>
-      <c r="M112" s="152"/>
-      <c r="N112" s="154"/>
-      <c r="O112" s="152"/>
-      <c r="P112" s="142"/>
-      <c r="Q112" s="160"/>
-      <c r="R112" s="158"/>
+      <c r="B112" s="142"/>
+      <c r="C112" s="143"/>
+      <c r="D112" s="147"/>
+      <c r="E112" s="145"/>
+      <c r="F112" s="149"/>
+      <c r="G112" s="155"/>
+      <c r="H112" s="155"/>
+      <c r="I112" s="155"/>
+      <c r="J112" s="157"/>
+      <c r="K112" s="157"/>
+      <c r="L112" s="153"/>
+      <c r="M112" s="151"/>
+      <c r="N112" s="153"/>
+      <c r="O112" s="151"/>
+      <c r="P112" s="149"/>
+      <c r="Q112" s="159"/>
+      <c r="R112" s="161"/>
       <c r="S112" s="84"/>
       <c r="T112" s="85"/>
       <c r="U112" s="85"/>
@@ -19209,23 +19823,23 @@
       <c r="EL112" s="96"/>
     </row>
     <row r="113" spans="2:142" ht="9" customHeight="1">
-      <c r="B113" s="201"/>
-      <c r="C113" s="191"/>
-      <c r="D113" s="155"/>
-      <c r="E113" s="145"/>
-      <c r="F113" s="141"/>
-      <c r="G113" s="147"/>
-      <c r="H113" s="147"/>
-      <c r="I113" s="147"/>
-      <c r="J113" s="149"/>
-      <c r="K113" s="149"/>
-      <c r="L113" s="153"/>
-      <c r="M113" s="151"/>
-      <c r="N113" s="153"/>
-      <c r="O113" s="151"/>
-      <c r="P113" s="141"/>
-      <c r="Q113" s="159"/>
-      <c r="R113" s="157"/>
+      <c r="B113" s="141"/>
+      <c r="C113" s="143"/>
+      <c r="D113" s="146"/>
+      <c r="E113" s="144"/>
+      <c r="F113" s="148"/>
+      <c r="G113" s="154"/>
+      <c r="H113" s="154"/>
+      <c r="I113" s="154"/>
+      <c r="J113" s="156"/>
+      <c r="K113" s="156"/>
+      <c r="L113" s="152"/>
+      <c r="M113" s="150"/>
+      <c r="N113" s="152"/>
+      <c r="O113" s="150"/>
+      <c r="P113" s="148"/>
+      <c r="Q113" s="158"/>
+      <c r="R113" s="160"/>
       <c r="S113" s="84"/>
       <c r="T113" s="87"/>
       <c r="U113" s="86"/>
@@ -19352,23 +19966,23 @@
       <c r="EL113" s="95"/>
     </row>
     <row r="114" spans="2:142" ht="9" customHeight="1">
-      <c r="B114" s="202"/>
-      <c r="C114" s="191"/>
-      <c r="D114" s="156"/>
-      <c r="E114" s="146"/>
-      <c r="F114" s="142"/>
-      <c r="G114" s="148"/>
-      <c r="H114" s="148"/>
-      <c r="I114" s="148"/>
-      <c r="J114" s="150"/>
-      <c r="K114" s="150"/>
-      <c r="L114" s="154"/>
-      <c r="M114" s="152"/>
-      <c r="N114" s="154"/>
-      <c r="O114" s="152"/>
-      <c r="P114" s="142"/>
-      <c r="Q114" s="160"/>
-      <c r="R114" s="158"/>
+      <c r="B114" s="142"/>
+      <c r="C114" s="143"/>
+      <c r="D114" s="147"/>
+      <c r="E114" s="145"/>
+      <c r="F114" s="149"/>
+      <c r="G114" s="155"/>
+      <c r="H114" s="155"/>
+      <c r="I114" s="155"/>
+      <c r="J114" s="157"/>
+      <c r="K114" s="157"/>
+      <c r="L114" s="153"/>
+      <c r="M114" s="151"/>
+      <c r="N114" s="153"/>
+      <c r="O114" s="151"/>
+      <c r="P114" s="149"/>
+      <c r="Q114" s="159"/>
+      <c r="R114" s="161"/>
       <c r="S114" s="84"/>
       <c r="T114" s="85"/>
       <c r="U114" s="85"/>
@@ -19495,23 +20109,23 @@
       <c r="EL114" s="96"/>
     </row>
     <row r="115" spans="2:142" ht="9" customHeight="1">
-      <c r="B115" s="201"/>
-      <c r="C115" s="191"/>
-      <c r="D115" s="155"/>
-      <c r="E115" s="145"/>
-      <c r="F115" s="141"/>
-      <c r="G115" s="147"/>
-      <c r="H115" s="147"/>
-      <c r="I115" s="147"/>
-      <c r="J115" s="149"/>
-      <c r="K115" s="149"/>
-      <c r="L115" s="153"/>
-      <c r="M115" s="151"/>
-      <c r="N115" s="153"/>
-      <c r="O115" s="151"/>
-      <c r="P115" s="141"/>
-      <c r="Q115" s="159"/>
-      <c r="R115" s="157"/>
+      <c r="B115" s="141"/>
+      <c r="C115" s="143"/>
+      <c r="D115" s="146"/>
+      <c r="E115" s="144"/>
+      <c r="F115" s="148"/>
+      <c r="G115" s="154"/>
+      <c r="H115" s="154"/>
+      <c r="I115" s="154"/>
+      <c r="J115" s="156"/>
+      <c r="K115" s="156"/>
+      <c r="L115" s="152"/>
+      <c r="M115" s="150"/>
+      <c r="N115" s="152"/>
+      <c r="O115" s="150"/>
+      <c r="P115" s="148"/>
+      <c r="Q115" s="158"/>
+      <c r="R115" s="160"/>
       <c r="S115" s="84"/>
       <c r="T115" s="87"/>
       <c r="U115" s="86"/>
@@ -19638,23 +20252,23 @@
       <c r="EL115" s="95"/>
     </row>
     <row r="116" spans="2:142" ht="9" customHeight="1">
-      <c r="B116" s="202"/>
-      <c r="C116" s="191"/>
-      <c r="D116" s="156"/>
-      <c r="E116" s="146"/>
-      <c r="F116" s="142"/>
-      <c r="G116" s="148"/>
-      <c r="H116" s="148"/>
-      <c r="I116" s="148"/>
-      <c r="J116" s="150"/>
-      <c r="K116" s="150"/>
-      <c r="L116" s="154"/>
-      <c r="M116" s="152"/>
-      <c r="N116" s="154"/>
-      <c r="O116" s="152"/>
-      <c r="P116" s="142"/>
-      <c r="Q116" s="160"/>
-      <c r="R116" s="158"/>
+      <c r="B116" s="142"/>
+      <c r="C116" s="143"/>
+      <c r="D116" s="147"/>
+      <c r="E116" s="145"/>
+      <c r="F116" s="149"/>
+      <c r="G116" s="155"/>
+      <c r="H116" s="155"/>
+      <c r="I116" s="155"/>
+      <c r="J116" s="157"/>
+      <c r="K116" s="157"/>
+      <c r="L116" s="153"/>
+      <c r="M116" s="151"/>
+      <c r="N116" s="153"/>
+      <c r="O116" s="151"/>
+      <c r="P116" s="149"/>
+      <c r="Q116" s="159"/>
+      <c r="R116" s="161"/>
       <c r="S116" s="84"/>
       <c r="T116" s="85"/>
       <c r="U116" s="85"/>
@@ -19781,23 +20395,23 @@
       <c r="EL116" s="96"/>
     </row>
     <row r="117" spans="2:142" ht="9" customHeight="1">
-      <c r="B117" s="201"/>
-      <c r="C117" s="191"/>
-      <c r="D117" s="155"/>
-      <c r="E117" s="145"/>
-      <c r="F117" s="141"/>
-      <c r="G117" s="147"/>
-      <c r="H117" s="147"/>
-      <c r="I117" s="147"/>
-      <c r="J117" s="149"/>
-      <c r="K117" s="149"/>
-      <c r="L117" s="153"/>
-      <c r="M117" s="151"/>
-      <c r="N117" s="153"/>
-      <c r="O117" s="151"/>
-      <c r="P117" s="141"/>
-      <c r="Q117" s="159"/>
-      <c r="R117" s="157"/>
+      <c r="B117" s="141"/>
+      <c r="C117" s="143"/>
+      <c r="D117" s="146"/>
+      <c r="E117" s="144"/>
+      <c r="F117" s="148"/>
+      <c r="G117" s="154"/>
+      <c r="H117" s="154"/>
+      <c r="I117" s="154"/>
+      <c r="J117" s="156"/>
+      <c r="K117" s="156"/>
+      <c r="L117" s="152"/>
+      <c r="M117" s="150"/>
+      <c r="N117" s="152"/>
+      <c r="O117" s="150"/>
+      <c r="P117" s="148"/>
+      <c r="Q117" s="158"/>
+      <c r="R117" s="160"/>
       <c r="S117" s="84"/>
       <c r="T117" s="87"/>
       <c r="U117" s="86"/>
@@ -19924,23 +20538,23 @@
       <c r="EL117" s="95"/>
     </row>
     <row r="118" spans="2:142" ht="9" customHeight="1">
-      <c r="B118" s="202"/>
-      <c r="C118" s="191"/>
-      <c r="D118" s="156"/>
-      <c r="E118" s="146"/>
-      <c r="F118" s="142"/>
-      <c r="G118" s="148"/>
-      <c r="H118" s="148"/>
-      <c r="I118" s="148"/>
-      <c r="J118" s="150"/>
-      <c r="K118" s="150"/>
-      <c r="L118" s="154"/>
-      <c r="M118" s="152"/>
-      <c r="N118" s="154"/>
-      <c r="O118" s="152"/>
-      <c r="P118" s="142"/>
-      <c r="Q118" s="160"/>
-      <c r="R118" s="158"/>
+      <c r="B118" s="142"/>
+      <c r="C118" s="143"/>
+      <c r="D118" s="147"/>
+      <c r="E118" s="145"/>
+      <c r="F118" s="149"/>
+      <c r="G118" s="155"/>
+      <c r="H118" s="155"/>
+      <c r="I118" s="155"/>
+      <c r="J118" s="157"/>
+      <c r="K118" s="157"/>
+      <c r="L118" s="153"/>
+      <c r="M118" s="151"/>
+      <c r="N118" s="153"/>
+      <c r="O118" s="151"/>
+      <c r="P118" s="149"/>
+      <c r="Q118" s="159"/>
+      <c r="R118" s="161"/>
       <c r="S118" s="84"/>
       <c r="T118" s="85"/>
       <c r="U118" s="85"/>
@@ -20067,23 +20681,23 @@
       <c r="EL118" s="96"/>
     </row>
     <row r="119" spans="2:142" ht="9" customHeight="1">
-      <c r="B119" s="201"/>
-      <c r="C119" s="191"/>
-      <c r="D119" s="155"/>
-      <c r="E119" s="145"/>
-      <c r="F119" s="141"/>
-      <c r="G119" s="147"/>
-      <c r="H119" s="147"/>
-      <c r="I119" s="147"/>
-      <c r="J119" s="149"/>
-      <c r="K119" s="149"/>
-      <c r="L119" s="153"/>
-      <c r="M119" s="151"/>
-      <c r="N119" s="153"/>
-      <c r="O119" s="151"/>
-      <c r="P119" s="141"/>
-      <c r="Q119" s="159"/>
-      <c r="R119" s="157"/>
+      <c r="B119" s="141"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="146"/>
+      <c r="E119" s="144"/>
+      <c r="F119" s="148"/>
+      <c r="G119" s="154"/>
+      <c r="H119" s="154"/>
+      <c r="I119" s="154"/>
+      <c r="J119" s="156"/>
+      <c r="K119" s="156"/>
+      <c r="L119" s="152"/>
+      <c r="M119" s="150"/>
+      <c r="N119" s="152"/>
+      <c r="O119" s="150"/>
+      <c r="P119" s="148"/>
+      <c r="Q119" s="158"/>
+      <c r="R119" s="160"/>
       <c r="S119" s="84"/>
       <c r="T119" s="87"/>
       <c r="U119" s="86"/>
@@ -20210,23 +20824,23 @@
       <c r="EL119" s="95"/>
     </row>
     <row r="120" spans="2:142" ht="9" customHeight="1">
-      <c r="B120" s="202"/>
-      <c r="C120" s="191"/>
-      <c r="D120" s="156"/>
-      <c r="E120" s="146"/>
-      <c r="F120" s="142"/>
-      <c r="G120" s="148"/>
-      <c r="H120" s="148"/>
-      <c r="I120" s="148"/>
-      <c r="J120" s="150"/>
-      <c r="K120" s="150"/>
-      <c r="L120" s="154"/>
-      <c r="M120" s="152"/>
-      <c r="N120" s="154"/>
-      <c r="O120" s="152"/>
-      <c r="P120" s="142"/>
-      <c r="Q120" s="160"/>
-      <c r="R120" s="158"/>
+      <c r="B120" s="142"/>
+      <c r="C120" s="143"/>
+      <c r="D120" s="147"/>
+      <c r="E120" s="145"/>
+      <c r="F120" s="149"/>
+      <c r="G120" s="155"/>
+      <c r="H120" s="155"/>
+      <c r="I120" s="155"/>
+      <c r="J120" s="157"/>
+      <c r="K120" s="157"/>
+      <c r="L120" s="153"/>
+      <c r="M120" s="151"/>
+      <c r="N120" s="153"/>
+      <c r="O120" s="151"/>
+      <c r="P120" s="149"/>
+      <c r="Q120" s="159"/>
+      <c r="R120" s="161"/>
       <c r="S120" s="84"/>
       <c r="T120" s="85"/>
       <c r="U120" s="85"/>
@@ -20359,36 +20973,915 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="963">
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="N97:N98"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="Q97:Q98"/>
+    <mergeCell ref="R97:R98"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="Q115:Q116"/>
+    <mergeCell ref="R115:R116"/>
+    <mergeCell ref="P115:P116"/>
+    <mergeCell ref="P117:P118"/>
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="N117:N118"/>
+    <mergeCell ref="O117:O118"/>
+    <mergeCell ref="Q117:Q118"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="O119:O120"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="R119:R120"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="Q111:Q112"/>
+    <mergeCell ref="R111:R112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="N113:N114"/>
+    <mergeCell ref="O113:O114"/>
+    <mergeCell ref="Q113:Q114"/>
+    <mergeCell ref="R113:R114"/>
+    <mergeCell ref="P111:P112"/>
+    <mergeCell ref="P113:P114"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="P109:P110"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="N111:N112"/>
+    <mergeCell ref="O111:O112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="N115:N116"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="Q107:Q108"/>
+    <mergeCell ref="R107:R108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="Q109:Q110"/>
+    <mergeCell ref="R109:R110"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="O105:O106"/>
+    <mergeCell ref="Q105:Q106"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="P91:P92"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="P99:P100"/>
+    <mergeCell ref="P101:P102"/>
+    <mergeCell ref="P103:P104"/>
+    <mergeCell ref="P105:P106"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="Q91:Q92"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="N91:N92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="O103:O104"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="R103:R104"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="N99:N100"/>
+    <mergeCell ref="O99:O100"/>
+    <mergeCell ref="Q99:Q100"/>
+    <mergeCell ref="R101:R102"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="Q101:Q102"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="EL8:EL10"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="R71:R72"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CC2:CE2"/>
+    <mergeCell ref="CF2:CH2"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="Q93:Q94"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="R93:R94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="P107:P108"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="N95:N96"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:C102"/>
     <mergeCell ref="E101:E102"/>
@@ -20413,975 +21906,206 @@
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="E87:E88"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="R93:R94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="P107:P108"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="Q93:Q94"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CC2:CE2"/>
-    <mergeCell ref="CF2:CH2"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="R71:R72"/>
-    <mergeCell ref="R65:R66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="EL8:EL10"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="R69:R70"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="R87:R88"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="Q85:Q86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="O103:O104"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="R103:R104"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="N99:N100"/>
-    <mergeCell ref="O99:O100"/>
-    <mergeCell ref="Q99:Q100"/>
-    <mergeCell ref="R101:R102"/>
-    <mergeCell ref="O101:O102"/>
-    <mergeCell ref="Q101:Q102"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="N91:N92"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="O105:O106"/>
-    <mergeCell ref="Q105:Q106"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="P91:P92"/>
-    <mergeCell ref="P93:P94"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="P99:P100"/>
-    <mergeCell ref="P101:P102"/>
-    <mergeCell ref="P103:P104"/>
-    <mergeCell ref="P105:P106"/>
-    <mergeCell ref="O91:O92"/>
-    <mergeCell ref="Q91:Q92"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="O107:O108"/>
-    <mergeCell ref="Q107:Q108"/>
-    <mergeCell ref="R107:R108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="N109:N110"/>
-    <mergeCell ref="O109:O110"/>
-    <mergeCell ref="Q109:Q110"/>
-    <mergeCell ref="R109:R110"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="P109:P110"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="N111:N112"/>
-    <mergeCell ref="O111:O112"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="N115:N116"/>
-    <mergeCell ref="Q111:Q112"/>
-    <mergeCell ref="R111:R112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="M113:M114"/>
-    <mergeCell ref="N113:N114"/>
-    <mergeCell ref="O113:O114"/>
-    <mergeCell ref="Q113:Q114"/>
-    <mergeCell ref="R113:R114"/>
-    <mergeCell ref="P111:P112"/>
-    <mergeCell ref="P113:P114"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="Q115:Q116"/>
-    <mergeCell ref="R115:R116"/>
-    <mergeCell ref="P115:P116"/>
-    <mergeCell ref="P117:P118"/>
-    <mergeCell ref="P119:P120"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="N117:N118"/>
-    <mergeCell ref="O117:O118"/>
-    <mergeCell ref="Q117:Q118"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="O119:O120"/>
-    <mergeCell ref="Q119:Q120"/>
-    <mergeCell ref="R119:R120"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="N119:N120"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="N97:N98"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="Q97:Q98"/>
-    <mergeCell ref="R97:R98"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="S8:EK8">
-    <cfRule type="expression" dxfId="15" priority="1676" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="1706" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="1677" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="1707" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:EK10">
-    <cfRule type="expression" dxfId="13" priority="1684" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="1714" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="1685" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="1715" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="1686" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="1716" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:EK120">
-    <cfRule type="expression" dxfId="10" priority="3366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="3396" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="3397" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="3398" stopIfTrue="1">
       <formula>IF(AND($D11="",S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:K11 B11:F11 J13:K13 B13:F13 J15:K15 J17:K17 J19:K19 J21:K21 J23:K23 J25:K25 B15:F15 B17:F17 B19:F19 B21:F21 B23:F23 B25:F25 J27:K27 J29:K29 J31:K31 J33:K33 J35:K35 B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 J37:K37 B37:F37 J39:K39 J41:K41 J43:K43 J45:K45 J47:K47 B39:F39 B41:F41 B43:F43 B45:F45 B47:F47 J49:K49 B49:F49 J51:K51 J53:K53 J55:K55 J57:K57 J59:K59 B51:F51 B53:F53 B55:F55 B57:F57 B59:F59 J61:K61 B61:F61 J63:K63 J65:K65 J67:K67 J69:K69 J71:K71 B63:F63 B65:F65 B67:F67 B69:F69 B71:F71 J73:K73 B73:F73 J75:K75 J77:K77 J79:K79 J81:K81 J83:K83 B75:F75 B77:F77 B79:F79 B81:F81 B83:F83 J85:K85 B85:F85 J87:K87 J89:K89 J91:K91 J93:K93 J95:K95 B87:F87 B89:F89 B91:F91 B93:F93 B95:F95 J97:K97 B97:F97 J99:K99 J101:K101 J103:K103 J105:K105 J107:K107 B99:F99 B101:F101 B103:F103 B105:F105 B107:F107 J109:K109 B109:F109 J111:K111 J113:K113 J115:K115 J117:K117 J119:K119 B111:F111 B113:F113 B115:F115 B117:F117 B119:F119 G11:I120 L11:O120 Q11:R120">
-    <cfRule type="expression" dxfId="7" priority="4819" stopIfTrue="1">
+  <conditionalFormatting sqref="J11:K11 B11:F11 J13:K13 B13:F13 J15:K15 J17:K17 J19:K19 J21:K21 J23:K23 J25:K25 B15:F15 B17:F17 B19:F19 B21 B23 B25 J27:K27 J29:K29 J31:K31 J33:K33 J35:K35 B27 B29 B31 B33 B35 J37:K37 B37 J39:K39 J41:K41 J43:K43 J45:K45 J47:K47 B39 B41:D41 B43:D43 B45:D45 B47:D47 J49:K49 B49:D49 J51:K51 J53:K53 J55:K55 J57:K57 J59:K59 B51:D51 D53 B55 B57 B59 J61:K61 B61 J63:K63 J65:K65 J67:K67 J69:K69 J71:K71 B63 B65 B67 B69 B71 J73:K73 B73:F73 J75:K75 J77:K77 J79:K79 J81:K81 J83:K83 B75:F75 B77:F77 B79:F79 B81:F81 B83:F83 J85:K85 B85:F85 J87:K87 J89:K89 J91:K91 J93:K93 J95:K95 B87:F87 B89:F89 B91:F91 B93:F93 B95:F95 J97:K97 B97:F97 J99:K99 J101:K101 J103:K103 J105:K105 J107:K107 B99:F99 B101:F101 B103:F103 B105:F105 B107:F107 J109:K109 B109:F109 J111:K111 J113:K113 J115:K115 J117:K117 J119:K119 B111:F111 B113:F113 B115:F115 B117:F117 B119:F119 G11:I120 L11:O120 Q11:R120 D37 D35 D33 D31 D29 D27 D25 D23 D21 D39 D71 D69 D67 D65 D63 D61 D59 D57 D55">
+    <cfRule type="expression" dxfId="67" priority="4849" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4820" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="4850" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4821" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="4851" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ11:DM120">
-    <cfRule type="expression" dxfId="4" priority="5899" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="5929" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(CJ$9)=7,WEEKDAY(CJ$9)=1,IF(ISNA(MATCH(CJ$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5900" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="5930" stopIfTrue="1">
       <formula>IF(AND($D11="",$S11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11 P13 P15 P17 P19 P21 P23 P25 P27 P29 P31 P33 P35 P37 P39 P41 P43 P45 P47 P49 P51 P53 P55 P57 P59 P61 P63 P65 P67 P69 P71 P73 P75 P77 P79 P81 P83 P85 P87 P89 P91 P93 P95 P97 P99 P101 P103 P105 P107 P109 P111 P113 P115 P117 P119">
-    <cfRule type="expression" dxfId="2" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="98" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;""),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="99" stopIfTrue="1">
       <formula>IF(AND($D11&lt;&gt;"",$K11="",$I11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="100" stopIfTrue="1">
       <formula>IF(OR(AND($D11&lt;&gt;"",$J11&lt;&gt;"",$Q11&lt;100),TODAY()&gt;=$H11),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21 C23 C25 C27 C29 C31 C33 C35 C37">
+    <cfRule type="expression" dxfId="59" priority="28" stopIfTrue="1">
+      <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="29" stopIfTrue="1">
+      <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="30" stopIfTrue="1">
+      <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21 E23 E25 E27 E29 E31 E33 E35 E37">
+    <cfRule type="expression" dxfId="53" priority="25" stopIfTrue="1">
+      <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="26" stopIfTrue="1">
+      <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="27" stopIfTrue="1">
+      <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 F23 F25 F27 F29 F31 F33 F35 F37">
+    <cfRule type="expression" dxfId="47" priority="22" stopIfTrue="1">
+      <formula>IF(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="23" stopIfTrue="1">
+      <formula>IF(AND($D21&lt;&gt;"",$K21="",$I21&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="24" stopIfTrue="1">
+      <formula>IF(OR(AND($D21&lt;&gt;"",$J21&lt;&gt;"",$Q21&lt;100),TODAY()&gt;=$H21),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
+      <formula>IF(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
+      <formula>IF(AND($D39&lt;&gt;"",$K39="",$I39&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="21" stopIfTrue="1">
+      <formula>IF(OR(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$Q39&lt;100),TODAY()&gt;=$H39),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39 E41 E43 E45 E47 E49 E51">
+    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
+      <formula>IF(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
+      <formula>IF(AND($D39&lt;&gt;"",$K39="",$I39&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
+      <formula>IF(OR(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$Q39&lt;100),TODAY()&gt;=$H39),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39 F41 F43 F45 F47 F49 F51">
+    <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
+      <formula>IF(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
+      <formula>IF(AND($D39&lt;&gt;"",$K39="",$I39&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
+      <formula>IF(OR(AND($D39&lt;&gt;"",$J39&lt;&gt;"",$Q39&lt;100),TODAY()&gt;=$H39),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+      <formula>IF(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+      <formula>IF(AND($D53&lt;&gt;"",$K53="",$I53&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+      <formula>IF(OR(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$Q53&lt;100),TODAY()&gt;=$H53),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53 C55 C57 C59 C61 C63 C65 C67 C69 C71">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+      <formula>IF(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+      <formula>IF(AND($D53&lt;&gt;"",$K53="",$I53&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>IF(OR(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$Q53&lt;100),TODAY()&gt;=$H53),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53 E55 E57 E59 E61 E63 E65 E67 E69 E71">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+      <formula>IF(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+      <formula>IF(AND($D53&lt;&gt;"",$K53="",$I53&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+      <formula>IF(OR(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$Q53&lt;100),TODAY()&gt;=$H53),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53 F55 F57 F59 F61 F63 F65 F67 F69 F71">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>IF(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;""),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>IF(AND($D53&lt;&gt;"",$K53="",$I53&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>IF(OR(AND($D53&lt;&gt;"",$J53&lt;&gt;"",$Q53&lt;100),TODAY()&gt;=$H53),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
